--- a/design/MiniTemplate/Excels/#role.xlsx
+++ b/design/MiniTemplate/Excels/#role.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB62DA-9D2E-4758-9882-9CE3670BC80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997A019-F9BC-4CF3-8C91-FF86CC4400AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6552" yWindow="2100" windowWidth="20952" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="325">
   <si>
     <t>##var</t>
   </si>
@@ -115,17 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role.Quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>role.Relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,15 +596,6 @@
     <t>孙悟空</t>
   </si>
   <si>
-    <t>LING</t>
-  </si>
-  <si>
-    <t>XIAN</t>
-  </si>
-  <si>
-    <t>SHEN</t>
-  </si>
-  <si>
     <t>#修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,6 +1015,34 @@
   </si>
   <si>
     <t>fensheng</t>
+  </si>
+  <si>
+    <t>RoleQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>ling</t>
+  </si>
+  <si>
+    <t>xian</t>
+  </si>
+  <si>
+    <t>shen</t>
+  </si>
+  <si>
+    <t>xiangrui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1209,6 +1217,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,12 +1239,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,16 +1935,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="36" width="9.109375" style="1"/>
+    <col min="37" max="37" width="14.77734375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1959,83 +1969,83 @@
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="10"/>
-      <c r="AK1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="12"/>
+      <c r="AK1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="12"/>
     </row>
     <row r="2" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2051,102 +2061,102 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="15"/>
+      <c r="AK2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="13"/>
-      <c r="AK2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="13"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="15"/>
     </row>
     <row r="3" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AB3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AI3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="AK3" s="5">
         <v>1</v>
@@ -2195,59 +2205,59 @@
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="S4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>223</v>
+      <c r="W4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>10</v>
@@ -2285,7 +2295,7 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2294,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(D5, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G5</f>
@@ -2398,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(D6, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G6</f>
@@ -2516,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(D7, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G7</f>
@@ -2634,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(D8, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G8</f>
@@ -2752,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(D9, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G9</f>
@@ -2870,21 +2880,21 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(D10, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G10</f>
@@ -2988,24 +2998,24 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(D11, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G11</f>
@@ -3109,24 +3119,24 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(D12, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G12</f>
@@ -3230,24 +3240,24 @@
         <v>0.1</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(D13, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G13</f>
@@ -3351,24 +3361,24 @@
         <v>0.1</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(D14, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G14</f>
@@ -3472,24 +3482,24 @@
         <v>0.1</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F15" s="1">
         <f>VLOOKUP(D15, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G15</f>
@@ -3593,24 +3603,24 @@
         <v>0.2</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F16" s="1">
         <f>VLOOKUP(D16, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G16</f>
@@ -3714,24 +3724,24 @@
         <v>0.1</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F17" s="1">
         <f>VLOOKUP(D17, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G17</f>
@@ -3835,21 +3845,21 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F18" s="1">
         <f>VLOOKUP(D18, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G18</f>
@@ -3953,21 +3963,21 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP(D19, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G19</f>
@@ -4071,21 +4081,21 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F20" s="1">
         <f>VLOOKUP(D20, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G20</f>
@@ -4189,24 +4199,24 @@
         <v>0.1</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F21" s="1">
         <f>VLOOKUP(D21, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G21</f>
@@ -4310,24 +4320,24 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F22" s="1">
         <f>VLOOKUP(D22, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G22</f>
@@ -4431,24 +4441,24 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F23" s="1">
         <f>VLOOKUP(D23, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G23</f>
@@ -4552,24 +4562,24 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL23" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F24" s="1">
         <f>VLOOKUP(D24, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G24</f>
@@ -4673,21 +4683,21 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F25" s="1">
         <f>VLOOKUP(D25, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G25</f>
@@ -4791,24 +4801,24 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F26" s="1">
         <f>VLOOKUP(D26, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G26</f>
@@ -4912,21 +4922,21 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP(D27, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G27</f>
@@ -5030,24 +5040,24 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F28" s="1">
         <f>VLOOKUP(D28, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G28</f>
@@ -5151,24 +5161,24 @@
         <v>0.1</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F29" s="1">
         <f>VLOOKUP(D29, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G29</f>
@@ -5272,24 +5282,24 @@
         <v>0.1</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F30" s="1">
         <f>VLOOKUP(D30, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G30</f>
@@ -5393,24 +5403,24 @@
         <v>0.1</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F31" s="1">
         <f>VLOOKUP(D31, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G31</f>
@@ -5514,24 +5524,24 @@
         <v>0.2</v>
       </c>
       <c r="AK31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL31" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F32" s="1">
         <f>VLOOKUP(D32, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G32</f>
@@ -5635,21 +5645,21 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F33" s="1">
         <f>VLOOKUP(D33, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G33</f>
@@ -5753,24 +5763,24 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F34" s="1">
         <f>VLOOKUP(D34, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G34</f>
@@ -5874,24 +5884,24 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F35" s="1">
         <f>VLOOKUP(D35, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G35</f>
@@ -5995,24 +6005,24 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F36" s="1">
         <f>VLOOKUP(D36, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G36</f>
@@ -6116,24 +6126,24 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F37" s="1">
         <f>VLOOKUP(D37, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G37</f>
@@ -6237,24 +6247,24 @@
         <v>0.2</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F38" s="1">
         <f>VLOOKUP(D38, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G38</f>
@@ -6358,24 +6368,24 @@
         <v>0.1</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F39" s="1">
         <f>VLOOKUP(D39, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G39</f>
@@ -6479,24 +6489,24 @@
         <v>0.2</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F40" s="1">
         <f>VLOOKUP(D40, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G40</f>
@@ -6600,21 +6610,21 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F41" s="1">
         <f>VLOOKUP(D41, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G41</f>
@@ -6718,21 +6728,21 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1">
         <f>VLOOKUP(D42, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G42</f>
@@ -6836,21 +6846,21 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP(D43, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G43</f>
@@ -6954,24 +6964,24 @@
         <v>0.05</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F44" s="1">
         <f>VLOOKUP(D44, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G44</f>
@@ -7075,24 +7085,24 @@
         <v>0.1</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F45" s="1">
         <f>VLOOKUP(D45, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G45</f>
@@ -7196,24 +7206,24 @@
         <v>0.1</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D46" s="1">
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F46" s="1">
         <f>VLOOKUP(D46, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G46</f>
@@ -7317,24 +7327,24 @@
         <v>0.1</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F47" s="1">
         <f>VLOOKUP(D47, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G47</f>
@@ -7438,24 +7448,24 @@
         <v>0.1</v>
       </c>
       <c r="AK47" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1">
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F48" s="1">
         <f>VLOOKUP(D48, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G48</f>
@@ -7559,24 +7569,24 @@
         <v>0.1</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F49" s="1">
         <f>VLOOKUP(D49, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G49</f>
@@ -7680,21 +7690,21 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP(D50, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G50</f>
@@ -7798,24 +7808,24 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F51" s="1">
         <f>VLOOKUP(D51, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G51</f>
@@ -7919,24 +7929,24 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F52" s="1">
         <f>VLOOKUP(D52, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G52</f>
@@ -8040,24 +8050,24 @@
         <v>0.2</v>
       </c>
       <c r="AK52" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1">
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F53" s="1">
         <f>VLOOKUP(D53, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G53</f>
@@ -8161,21 +8171,21 @@
         <v>0.1</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1">
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F54" s="1">
         <f>VLOOKUP(D54, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G54</f>
@@ -8279,24 +8289,24 @@
         <v>0.2</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL54" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1">
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F55" s="1">
         <f>VLOOKUP(D55, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G55</f>
@@ -8397,24 +8407,24 @@
         <v>0.2</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AL55" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D56" s="1">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F56" s="1">
         <f>VLOOKUP(D56, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G56</f>
@@ -8518,24 +8528,24 @@
         <v>0.2</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL56" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP(D57, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G57</f>
@@ -8639,24 +8649,24 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP(D58, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G58</f>
@@ -8760,24 +8770,24 @@
         <v>0.1</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP(D59, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G59</f>
@@ -8881,21 +8891,21 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP(D60, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G60</f>
@@ -8999,24 +9009,24 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP(D61, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G61</f>
@@ -9120,24 +9130,24 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP(D62, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G62</f>
@@ -9241,24 +9251,24 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D63" s="1">
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP(D63, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G63</f>
@@ -9362,24 +9372,24 @@
         <v>0.1</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D64" s="1">
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP(D64, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G64</f>
@@ -9483,24 +9493,24 @@
         <v>0.1</v>
       </c>
       <c r="AK64" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP(D65, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G65</f>
@@ -9604,24 +9614,24 @@
         <v>0.2</v>
       </c>
       <c r="AK65" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F66" s="1">
         <f>VLOOKUP(D66, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G66</f>
@@ -9725,21 +9735,21 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D67" s="1">
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F67" s="1">
         <f>VLOOKUP(D67, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G67</f>
@@ -9843,24 +9853,24 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL67" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F68" s="1">
         <f>VLOOKUP(D68, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G68</f>
@@ -9964,24 +9974,24 @@
         <v>0.15</v>
       </c>
       <c r="AK68" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL68" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D69" s="1">
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F69" s="1">
         <f>VLOOKUP(D69, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G69</f>
@@ -10085,24 +10095,24 @@
         <v>0.15</v>
       </c>
       <c r="AK69" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D70" s="1">
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F70" s="1">
         <f>VLOOKUP(D70, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G70</f>
@@ -10206,24 +10216,24 @@
         <v>0.1</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL70" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP(D71, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G71</f>
@@ -10327,24 +10337,24 @@
         <v>0.15</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D72" s="1">
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F72" s="1">
         <f>VLOOKUP(D72, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G72</f>
@@ -10448,24 +10458,24 @@
         <v>0.1</v>
       </c>
       <c r="AK72" s="1" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP(D73, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G73</f>
@@ -10569,24 +10579,24 @@
         <v>0.1</v>
       </c>
       <c r="AK73" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL73" s="1" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D74" s="1">
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP(D74, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G74</f>
@@ -10690,24 +10700,24 @@
         <v>0.1</v>
       </c>
       <c r="AK74" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL74" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D75" s="1">
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP(D75, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G75</f>
@@ -10811,24 +10821,24 @@
         <v>0.1</v>
       </c>
       <c r="AK75" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F76" s="1">
         <f>VLOOKUP(D76, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G76</f>
@@ -10932,24 +10942,24 @@
         <v>0.1</v>
       </c>
       <c r="AK76" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL76" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F77" s="1">
         <f>VLOOKUP(D77, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G77</f>
@@ -11053,21 +11063,21 @@
         <v>0.1</v>
       </c>
       <c r="AK77" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D78" s="1">
         <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F78" s="1">
         <f>VLOOKUP(D78, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G78</f>
@@ -11171,24 +11181,24 @@
         <v>0.1</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F79" s="1">
         <f>VLOOKUP(D79, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G79</f>
@@ -11292,24 +11302,24 @@
         <v>0.1</v>
       </c>
       <c r="AK79" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D80" s="1">
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F80" s="1">
         <f>VLOOKUP(D80, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G80</f>
@@ -11413,24 +11423,24 @@
         <v>0.1</v>
       </c>
       <c r="AK80" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1">
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F81" s="1">
         <f>VLOOKUP(D81, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G81</f>
@@ -11534,24 +11544,24 @@
         <v>0.1</v>
       </c>
       <c r="AK81" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL81" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D82" s="1">
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F82" s="1">
         <f>VLOOKUP(D82, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G82</f>
@@ -11655,24 +11665,24 @@
         <v>0.2</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D83" s="1">
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F83" s="1">
         <f>VLOOKUP(D83, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G83</f>
@@ -11776,24 +11786,24 @@
         <v>0.2</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D84" s="1">
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F84" s="1">
         <f>VLOOKUP(D84, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G84</f>
@@ -11897,24 +11907,24 @@
         <v>0.2</v>
       </c>
       <c r="AK84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL84" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="AL84" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D85" s="1">
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F85" s="1">
         <f>VLOOKUP(D85, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G85</f>
@@ -12018,24 +12028,24 @@
         <v>0.2</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F86" s="1">
         <f>VLOOKUP(D86, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G86</f>
@@ -12139,24 +12149,24 @@
         <v>0.1</v>
       </c>
       <c r="AK86" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F87" s="1">
         <f>VLOOKUP(D87, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G87</f>
@@ -12260,24 +12270,24 @@
         <v>0.15</v>
       </c>
       <c r="AK87" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D88" s="1">
         <v>4</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F88" s="1">
         <f>VLOOKUP(D88, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G88</f>
@@ -12381,24 +12391,24 @@
         <v>0.15</v>
       </c>
       <c r="AK88" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL88" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F89" s="1">
         <f>VLOOKUP(D89, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G89</f>
@@ -12502,24 +12512,24 @@
         <v>0.2</v>
       </c>
       <c r="AK89" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D90" s="1">
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F90" s="1">
         <f>VLOOKUP(D90, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G90</f>
@@ -12623,24 +12633,24 @@
         <v>0.2</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D91" s="1">
         <v>7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F91" s="1">
         <f>VLOOKUP(D91, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G91</f>
@@ -12744,24 +12754,24 @@
         <v>0.25</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D92" s="1">
         <v>4</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F92" s="1">
         <f>VLOOKUP(D92, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G92</f>
@@ -12865,21 +12875,21 @@
         <v>0.05</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D93" s="1">
         <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP(D93, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G93</f>
@@ -12983,24 +12993,24 @@
         <v>0.05</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AL93" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F94" s="1">
         <f>VLOOKUP(D94, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G94</f>
@@ -13104,24 +13114,24 @@
         <v>0</v>
       </c>
       <c r="AK94" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL94" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F95" s="1">
         <f>VLOOKUP(D95, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G95</f>
@@ -13225,24 +13235,24 @@
         <v>0.15</v>
       </c>
       <c r="AK95" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D96" s="1">
         <v>4</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F96" s="1">
         <f>VLOOKUP(D96, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G96</f>
@@ -13346,24 +13356,24 @@
         <v>0</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D97" s="1">
         <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F97" s="1">
         <f>VLOOKUP(D97, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G97</f>
@@ -13467,21 +13477,21 @@
         <v>0.1</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F98" s="1">
         <f>VLOOKUP(D98, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G98</f>
@@ -13585,24 +13595,24 @@
         <v>0.1</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL98" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D99" s="1">
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F99" s="1">
         <f>VLOOKUP(D99, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G99</f>
@@ -13706,24 +13716,24 @@
         <v>0.15</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D100" s="1">
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F100" s="1">
         <f>VLOOKUP(D100, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G100</f>
@@ -13827,21 +13837,21 @@
         <v>0.05</v>
       </c>
       <c r="AK100" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F101" s="1">
         <f>VLOOKUP(D101, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G101</f>
@@ -13945,24 +13955,24 @@
         <v>0.05</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D102" s="1">
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F102" s="1">
         <f>VLOOKUP(D102, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G102</f>
@@ -14066,24 +14076,24 @@
         <v>0.05</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D103" s="1">
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F103" s="1">
         <f>VLOOKUP(D103, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G103</f>
@@ -14187,24 +14197,24 @@
         <v>0.05</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D104" s="1">
         <v>6</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F104" s="1">
         <f>VLOOKUP(D104, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G104</f>
@@ -14308,24 +14318,24 @@
         <v>0.05</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F105" s="1">
         <f>VLOOKUP(D105, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G105</f>
@@ -14429,24 +14439,24 @@
         <v>0.1</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AL105" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D106" s="1">
         <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F106" s="1">
         <f>VLOOKUP(D106, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G106</f>
@@ -14550,24 +14560,24 @@
         <v>0.2</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D107" s="1">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F107" s="1">
         <f>VLOOKUP(D107, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G107</f>
@@ -14671,24 +14681,24 @@
         <v>0.1</v>
       </c>
       <c r="AK107" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D108" s="1">
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F108" s="1">
         <f>VLOOKUP(D108, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G108</f>
@@ -14792,21 +14802,21 @@
         <v>0.05</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F109" s="1">
         <f>VLOOKUP(D109, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G109</f>
@@ -14910,24 +14920,24 @@
         <v>0.05</v>
       </c>
       <c r="AK109" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL109" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D110" s="1">
         <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F110" s="1">
         <f>VLOOKUP(D110, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G110</f>
@@ -15031,24 +15041,24 @@
         <v>0.05</v>
       </c>
       <c r="AK110" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL110" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F111" s="1">
         <f>VLOOKUP(D111, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G111</f>
@@ -15152,24 +15162,24 @@
         <v>0.05</v>
       </c>
       <c r="AK111" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D112" s="1">
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F112" s="1">
         <f>VLOOKUP(D112, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G112</f>
@@ -15273,21 +15283,21 @@
         <v>0.15</v>
       </c>
       <c r="AK112" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F113" s="1">
         <f>VLOOKUP(D113, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G113</f>
@@ -15391,21 +15401,21 @@
         <v>0.15</v>
       </c>
       <c r="AK113" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D114" s="1">
         <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F114" s="1">
         <f>VLOOKUP(D114, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G114</f>
@@ -15509,21 +15519,21 @@
         <v>0.2</v>
       </c>
       <c r="AK114" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D115" s="1">
         <v>5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F115" s="1">
         <f>VLOOKUP(D115, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G115</f>
@@ -15627,21 +15637,21 @@
         <v>0.2</v>
       </c>
       <c r="AK115" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D116" s="1">
         <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F116" s="1">
         <f>VLOOKUP(D116, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G116</f>
@@ -15745,21 +15755,21 @@
         <v>0.25</v>
       </c>
       <c r="AK116" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D117" s="1">
         <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F117" s="1">
         <f>VLOOKUP(D117, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G117</f>
@@ -15863,21 +15873,21 @@
         <v>0.25</v>
       </c>
       <c r="AK117" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D118" s="1">
         <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F118" s="1">
         <f>VLOOKUP(D118, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G118</f>
@@ -15981,21 +15991,21 @@
         <v>0.25</v>
       </c>
       <c r="AK118" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D119" s="1">
         <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F119" s="1">
         <f>VLOOKUP(D119, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G119</f>
@@ -16099,21 +16109,21 @@
         <v>0.3</v>
       </c>
       <c r="AK119" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D120" s="1">
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F120" s="1">
         <f>VLOOKUP(D120, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G120</f>
@@ -16217,24 +16227,24 @@
         <v>0</v>
       </c>
       <c r="AK120" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D121" s="1">
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F121" s="1">
         <f>VLOOKUP(D121, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G121</f>
@@ -16338,24 +16348,24 @@
         <v>0.05</v>
       </c>
       <c r="AK121" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL121" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D122" s="1">
         <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F122" s="1">
         <f>VLOOKUP(D122, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G122</f>
@@ -16459,24 +16469,24 @@
         <v>0.05</v>
       </c>
       <c r="AK122" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D123" s="1">
         <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F123" s="1">
         <f>VLOOKUP(D123, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G123</f>
@@ -16580,24 +16590,24 @@
         <v>0.1</v>
       </c>
       <c r="AK123" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D124" s="1">
         <v>7</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F124" s="1">
         <f>VLOOKUP(D124, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G124</f>
@@ -16701,24 +16711,24 @@
         <v>0.15</v>
       </c>
       <c r="AK124" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F125" s="1">
         <f>VLOOKUP(D125, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G125</f>
@@ -16822,24 +16832,24 @@
         <v>0.05</v>
       </c>
       <c r="AK125" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D126" s="1">
         <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F126" s="1">
         <f>VLOOKUP(D126, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G126</f>
@@ -16943,24 +16953,24 @@
         <v>0.15</v>
       </c>
       <c r="AK126" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D127" s="1">
         <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F127" s="1">
         <f>VLOOKUP(D127, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G127</f>
@@ -17064,21 +17074,21 @@
         <v>0.2</v>
       </c>
       <c r="AK127" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D128" s="1">
         <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F128" s="1">
         <f>VLOOKUP(D128, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G128</f>
@@ -17182,24 +17192,24 @@
         <v>0.2</v>
       </c>
       <c r="AK128" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D129" s="1">
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F129" s="1">
         <f>VLOOKUP(D129, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G129</f>
@@ -17303,24 +17313,24 @@
         <v>0</v>
       </c>
       <c r="AK129" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D130" s="1">
         <v>3</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F130" s="1">
         <f>VLOOKUP(D130, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G130</f>
@@ -17424,24 +17434,24 @@
         <v>0.05</v>
       </c>
       <c r="AK130" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL130" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D131" s="1">
         <v>4</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F131" s="1">
         <f>VLOOKUP(D131, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G131</f>
@@ -17545,24 +17555,24 @@
         <v>0.05</v>
       </c>
       <c r="AK131" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F132" s="1">
         <f>VLOOKUP(D132, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G132</f>
@@ -17666,24 +17676,24 @@
         <v>0.2</v>
       </c>
       <c r="AK132" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F133" s="1">
         <f>VLOOKUP(D133, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G133</f>
@@ -17787,21 +17797,21 @@
         <v>0</v>
       </c>
       <c r="AK133" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F134" s="1">
         <f>VLOOKUP(D134, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G134</f>
@@ -17905,21 +17915,21 @@
         <v>0.05</v>
       </c>
       <c r="AK134" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D135" s="1">
         <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F135" s="1">
         <f>VLOOKUP(D135, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G135</f>
@@ -18023,24 +18033,24 @@
         <v>0.05</v>
       </c>
       <c r="AK135" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AL135" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F136" s="1">
         <f>VLOOKUP(D136, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G136</f>
@@ -18144,24 +18154,24 @@
         <v>0.05</v>
       </c>
       <c r="AK136" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D137" s="1">
         <v>6</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F137" s="1">
         <f>VLOOKUP(D137, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G137</f>
@@ -18265,21 +18275,21 @@
         <v>0.05</v>
       </c>
       <c r="AK137" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D138" s="1">
         <v>7</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F138" s="1">
         <f>VLOOKUP(D138, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G138</f>
@@ -18383,24 +18393,24 @@
         <v>0.05</v>
       </c>
       <c r="AK138" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL138" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F139" s="1">
         <f>VLOOKUP(D139, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G139</f>
@@ -18504,24 +18514,24 @@
         <v>0</v>
       </c>
       <c r="AK139" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D140" s="1">
         <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F140" s="1">
         <f>VLOOKUP(D140, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G140</f>
@@ -18625,24 +18635,24 @@
         <v>0.1</v>
       </c>
       <c r="AK140" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F141" s="1">
         <f>VLOOKUP(D141, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G141</f>
@@ -18746,21 +18756,21 @@
         <v>0.05</v>
       </c>
       <c r="AK141" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F142" s="1">
         <f>VLOOKUP(D142, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G142</f>
@@ -18864,24 +18874,24 @@
         <v>0.1</v>
       </c>
       <c r="AK142" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D143" s="1">
         <v>3</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F143" s="1">
         <f>VLOOKUP(D143, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G143</f>
@@ -18985,24 +18995,24 @@
         <v>0.15</v>
       </c>
       <c r="AK143" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL143" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D144" s="1">
         <v>4</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F144" s="1">
         <f>VLOOKUP(D144, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G144</f>
@@ -19106,24 +19116,24 @@
         <v>0.1</v>
       </c>
       <c r="AK144" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D145" s="1">
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F145" s="1">
         <f>VLOOKUP(D145, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G145</f>
@@ -19227,36 +19237,36 @@
         <v>0</v>
       </c>
       <c r="AK145" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL145" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AM145" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AN145" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AO145" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AP145" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D146" s="1">
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F146" s="1">
         <f>VLOOKUP(D146, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G146</f>
@@ -19360,36 +19370,36 @@
         <v>0.3</v>
       </c>
       <c r="AK146" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL146" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM146" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN146" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AM146" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN146" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="AO146" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AP146" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D147" s="1">
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F147" s="1">
         <f>VLOOKUP(D147, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G147</f>
@@ -19493,45 +19503,45 @@
         <v>0.3</v>
       </c>
       <c r="AK147" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL147" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM147" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN147" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO147" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP147" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ147" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR147" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AM147" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AN147" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AO147" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AP147" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ147" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AR147" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="AS147" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D148" s="1">
         <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F148" s="1">
         <f>VLOOKUP(D148, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G148</f>
@@ -19635,33 +19645,33 @@
         <v>0.3</v>
       </c>
       <c r="AK148" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL148" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AM148" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AN148" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AO148" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D149" s="1">
         <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="F149" s="1">
         <f>VLOOKUP(D149, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G149</f>
@@ -19765,22 +19775,22 @@
         <v>0.35</v>
       </c>
       <c r="AK149" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AM149" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN149" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AO149" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AP149" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -19791,7 +19801,7 @@
     <mergeCell ref="AK1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F35:H149 Y5:XFD34 A5:H34 I5:X149 H6:H149">
+  <conditionalFormatting sqref="A5:H34 Y5:XFD34 I5:X149 H6:H149 B7:B149 F35:H149">
     <cfRule type="expression" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
@@ -19819,11 +19829,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{AF6DF336-CE2E-4FDC-86E3-D0ED4DA0E178}">
-      <formula1>"NONE,LING,XIAN,SHEN"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError sqref="L5" formula="1"/>

--- a/design/MiniTemplate/Excels/#role.xlsx
+++ b/design/MiniTemplate/Excels/#role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997A019-F9BC-4CF3-8C91-FF86CC4400AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55AD3FA-B7CF-4B58-AEE2-BDBEB38CF841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6552" yWindow="2100" windowWidth="20952" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="470">
   <si>
     <t>##var</t>
   </si>
@@ -1017,10 +1017,6 @@
     <t>fensheng</t>
   </si>
   <si>
-    <t>RoleQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoleRelation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1043,6 +1039,445 @@
   <si>
     <t>zuie2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>h10</t>
+  </si>
+  <si>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>h12</t>
+  </si>
+  <si>
+    <t>h13</t>
+  </si>
+  <si>
+    <t>h14</t>
+  </si>
+  <si>
+    <t>h15</t>
+  </si>
+  <si>
+    <t>h16</t>
+  </si>
+  <si>
+    <t>h17</t>
+  </si>
+  <si>
+    <t>h18</t>
+  </si>
+  <si>
+    <t>h19</t>
+  </si>
+  <si>
+    <t>h20</t>
+  </si>
+  <si>
+    <t>h21</t>
+  </si>
+  <si>
+    <t>h22</t>
+  </si>
+  <si>
+    <t>h23</t>
+  </si>
+  <si>
+    <t>h24</t>
+  </si>
+  <si>
+    <t>h25</t>
+  </si>
+  <si>
+    <t>h26</t>
+  </si>
+  <si>
+    <t>h27</t>
+  </si>
+  <si>
+    <t>h28</t>
+  </si>
+  <si>
+    <t>h29</t>
+  </si>
+  <si>
+    <t>h30</t>
+  </si>
+  <si>
+    <t>h31</t>
+  </si>
+  <si>
+    <t>h32</t>
+  </si>
+  <si>
+    <t>h33</t>
+  </si>
+  <si>
+    <t>h34</t>
+  </si>
+  <si>
+    <t>h35</t>
+  </si>
+  <si>
+    <t>h36</t>
+  </si>
+  <si>
+    <t>h37</t>
+  </si>
+  <si>
+    <t>h38</t>
+  </si>
+  <si>
+    <t>h39</t>
+  </si>
+  <si>
+    <t>h40</t>
+  </si>
+  <si>
+    <t>h41</t>
+  </si>
+  <si>
+    <t>h42</t>
+  </si>
+  <si>
+    <t>h43</t>
+  </si>
+  <si>
+    <t>h44</t>
+  </si>
+  <si>
+    <t>h45</t>
+  </si>
+  <si>
+    <t>h46</t>
+  </si>
+  <si>
+    <t>h47</t>
+  </si>
+  <si>
+    <t>h48</t>
+  </si>
+  <si>
+    <t>h49</t>
+  </si>
+  <si>
+    <t>h50</t>
+  </si>
+  <si>
+    <t>h51</t>
+  </si>
+  <si>
+    <t>h52</t>
+  </si>
+  <si>
+    <t>h53</t>
+  </si>
+  <si>
+    <t>h54</t>
+  </si>
+  <si>
+    <t>h55</t>
+  </si>
+  <si>
+    <t>h56</t>
+  </si>
+  <si>
+    <t>h57</t>
+  </si>
+  <si>
+    <t>h58</t>
+  </si>
+  <si>
+    <t>h59</t>
+  </si>
+  <si>
+    <t>h60</t>
+  </si>
+  <si>
+    <t>h61</t>
+  </si>
+  <si>
+    <t>h62</t>
+  </si>
+  <si>
+    <t>h63</t>
+  </si>
+  <si>
+    <t>h64</t>
+  </si>
+  <si>
+    <t>h65</t>
+  </si>
+  <si>
+    <t>h66</t>
+  </si>
+  <si>
+    <t>h67</t>
+  </si>
+  <si>
+    <t>h68</t>
+  </si>
+  <si>
+    <t>h69</t>
+  </si>
+  <si>
+    <t>h70</t>
+  </si>
+  <si>
+    <t>h71</t>
+  </si>
+  <si>
+    <t>h72</t>
+  </si>
+  <si>
+    <t>h73</t>
+  </si>
+  <si>
+    <t>h74</t>
+  </si>
+  <si>
+    <t>h75</t>
+  </si>
+  <si>
+    <t>h76</t>
+  </si>
+  <si>
+    <t>h77</t>
+  </si>
+  <si>
+    <t>h78</t>
+  </si>
+  <si>
+    <t>h79</t>
+  </si>
+  <si>
+    <t>h80</t>
+  </si>
+  <si>
+    <t>h81</t>
+  </si>
+  <si>
+    <t>h82</t>
+  </si>
+  <si>
+    <t>h83</t>
+  </si>
+  <si>
+    <t>h84</t>
+  </si>
+  <si>
+    <t>h85</t>
+  </si>
+  <si>
+    <t>h86</t>
+  </si>
+  <si>
+    <t>h87</t>
+  </si>
+  <si>
+    <t>h88</t>
+  </si>
+  <si>
+    <t>h89</t>
+  </si>
+  <si>
+    <t>h90</t>
+  </si>
+  <si>
+    <t>h91</t>
+  </si>
+  <si>
+    <t>h92</t>
+  </si>
+  <si>
+    <t>h93</t>
+  </si>
+  <si>
+    <t>h94</t>
+  </si>
+  <si>
+    <t>h95</t>
+  </si>
+  <si>
+    <t>h96</t>
+  </si>
+  <si>
+    <t>h97</t>
+  </si>
+  <si>
+    <t>h98</t>
+  </si>
+  <si>
+    <t>h99</t>
+  </si>
+  <si>
+    <t>h100</t>
+  </si>
+  <si>
+    <t>h101</t>
+  </si>
+  <si>
+    <t>h102</t>
+  </si>
+  <si>
+    <t>h103</t>
+  </si>
+  <si>
+    <t>h104</t>
+  </si>
+  <si>
+    <t>h105</t>
+  </si>
+  <si>
+    <t>h106</t>
+  </si>
+  <si>
+    <t>h107</t>
+  </si>
+  <si>
+    <t>h108</t>
+  </si>
+  <si>
+    <t>h109</t>
+  </si>
+  <si>
+    <t>h110</t>
+  </si>
+  <si>
+    <t>h111</t>
+  </si>
+  <si>
+    <t>h112</t>
+  </si>
+  <si>
+    <t>h113</t>
+  </si>
+  <si>
+    <t>h114</t>
+  </si>
+  <si>
+    <t>h115</t>
+  </si>
+  <si>
+    <t>h116</t>
+  </si>
+  <si>
+    <t>h117</t>
+  </si>
+  <si>
+    <t>h118</t>
+  </si>
+  <si>
+    <t>h119</t>
+  </si>
+  <si>
+    <t>h120</t>
+  </si>
+  <si>
+    <t>h121</t>
+  </si>
+  <si>
+    <t>h122</t>
+  </si>
+  <si>
+    <t>h123</t>
+  </si>
+  <si>
+    <t>h124</t>
+  </si>
+  <si>
+    <t>h125</t>
+  </si>
+  <si>
+    <t>h126</t>
+  </si>
+  <si>
+    <t>h127</t>
+  </si>
+  <si>
+    <t>h128</t>
+  </si>
+  <si>
+    <t>h129</t>
+  </si>
+  <si>
+    <t>h130</t>
+  </si>
+  <si>
+    <t>h131</t>
+  </si>
+  <si>
+    <t>h132</t>
+  </si>
+  <si>
+    <t>h133</t>
+  </si>
+  <si>
+    <t>h134</t>
+  </si>
+  <si>
+    <t>h135</t>
+  </si>
+  <si>
+    <t>h136</t>
+  </si>
+  <si>
+    <t>h137</t>
+  </si>
+  <si>
+    <t>h138</t>
+  </si>
+  <si>
+    <t>h139</t>
+  </si>
+  <si>
+    <t>h140</t>
+  </si>
+  <si>
+    <t>h141</t>
+  </si>
+  <si>
+    <t>h142</t>
+  </si>
+  <si>
+    <t>h143</t>
+  </si>
+  <si>
+    <t>h144</t>
+  </si>
+  <si>
+    <t>h145</t>
   </si>
 </sst>
 </file>
@@ -1935,9 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -2061,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>26</v>
@@ -2097,7 +2532,7 @@
         <v>210</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
@@ -2294,8 +2729,8 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2304,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(D5, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G5</f>
@@ -2374,46 +2809,13 @@
       <c r="X5" s="1">
         <v>1</v>
       </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
       <c r="AK5" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>43</v>
@@ -2422,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(D6, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G6</f>
@@ -2495,43 +2897,16 @@
       <c r="Y6" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
       <c r="AA6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
       <c r="AK6" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>3</v>
+      <c r="B7" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
@@ -2540,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(D7, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G7</f>
@@ -2613,43 +2988,16 @@
       <c r="Y7" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
       <c r="AA7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
       <c r="AK7" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>4</v>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -2658,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(D8, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G8</f>
@@ -2731,43 +3079,16 @@
       <c r="Y8" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
       <c r="AA8" s="1">
         <v>0.6</v>
       </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
       <c r="AK8" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>5</v>
+      <c r="B9" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
@@ -2776,7 +3097,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(D9, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G9</f>
@@ -2849,43 +3170,19 @@
       <c r="Y9" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
       <c r="AA9" s="1">
         <v>0.6</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
       <c r="AH9" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>6</v>
+      <c r="B10" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -2894,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(D10, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G10</f>
@@ -2967,35 +3264,14 @@
       <c r="Y10" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
       <c r="AA10" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
       <c r="AF10" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
       <c r="AH10" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>221</v>
@@ -3005,8 +3281,8 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>7</v>
+      <c r="B11" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
@@ -3015,7 +3291,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(D11, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G11</f>
@@ -3088,35 +3364,14 @@
       <c r="Y11" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
       <c r="AA11" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>0</v>
-      </c>
       <c r="AF11" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG11" s="1">
-        <v>0</v>
-      </c>
       <c r="AH11" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>221</v>
@@ -3126,8 +3381,8 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>8</v>
+      <c r="B12" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
@@ -3136,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(D12, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G12</f>
@@ -3209,30 +3464,12 @@
       <c r="Y12" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
       <c r="AA12" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>0</v>
-      </c>
       <c r="AF12" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG12" s="1">
-        <v>0</v>
-      </c>
       <c r="AH12" s="1">
         <v>0.1</v>
       </c>
@@ -3247,8 +3484,8 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>9</v>
+      <c r="B13" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
@@ -3257,7 +3494,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(D13, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G13</f>
@@ -3330,30 +3567,15 @@
       <c r="Y13" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
       <c r="AA13" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
       <c r="AE13" s="1">
         <v>0.1</v>
       </c>
       <c r="AF13" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG13" s="1">
-        <v>0</v>
-      </c>
       <c r="AH13" s="1">
         <v>0.15</v>
       </c>
@@ -3368,8 +3590,8 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>10</v>
+      <c r="B14" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>51</v>
@@ -3378,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(D14, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G14</f>
@@ -3451,30 +3673,12 @@
       <c r="Y14" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z14" s="1">
-        <v>0</v>
-      </c>
       <c r="AA14" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>0</v>
-      </c>
       <c r="AF14" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG14" s="1">
-        <v>0</v>
-      </c>
       <c r="AH14" s="1">
         <v>0.1</v>
       </c>
@@ -3489,8 +3693,8 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>11</v>
+      <c r="B15" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -3499,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F15" s="1">
         <f>VLOOKUP(D15, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G15</f>
@@ -3572,30 +3776,12 @@
       <c r="Y15" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z15" s="1">
-        <v>0</v>
-      </c>
       <c r="AA15" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>0</v>
-      </c>
       <c r="AF15" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG15" s="1">
-        <v>0</v>
-      </c>
       <c r="AH15" s="1">
         <v>0.15</v>
       </c>
@@ -3610,8 +3796,8 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>12</v>
+      <c r="B16" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>53</v>
@@ -3620,7 +3806,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F16" s="1">
         <f>VLOOKUP(D16, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G16</f>
@@ -3693,30 +3879,12 @@
       <c r="Y16" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
       <c r="AA16" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>0</v>
-      </c>
       <c r="AF16" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG16" s="1">
-        <v>0</v>
-      </c>
       <c r="AH16" s="1">
         <v>0.15</v>
       </c>
@@ -3731,8 +3899,8 @@
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>13</v>
+      <c r="B17" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>54</v>
@@ -3741,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F17" s="1">
         <f>VLOOKUP(D17, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G17</f>
@@ -3811,23 +3979,8 @@
       <c r="X17" s="1">
         <v>0.9</v>
       </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
       <c r="Z17" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>0.5</v>
@@ -3835,22 +3988,13 @@
       <c r="AF17" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
       <c r="AK17" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>14</v>
+      <c r="B18" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
@@ -3859,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F18" s="1">
         <f>VLOOKUP(D18, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G18</f>
@@ -3929,23 +4073,8 @@
       <c r="X18" s="1">
         <v>1</v>
       </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
       <c r="Z18" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>0.4</v>
@@ -3953,22 +4082,13 @@
       <c r="AF18" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
       <c r="AK18" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>15</v>
+      <c r="B19" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>56</v>
@@ -3977,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP(D19, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G19</f>
@@ -4047,23 +4167,8 @@
       <c r="X19" s="1">
         <v>1</v>
       </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
       <c r="Z19" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>0.6</v>
@@ -4071,22 +4176,13 @@
       <c r="AF19" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>0</v>
-      </c>
       <c r="AK19" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>16</v>
+      <c r="B20" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>57</v>
@@ -4095,7 +4191,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F20" s="1">
         <f>VLOOKUP(D20, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G20</f>
@@ -4165,36 +4261,15 @@
       <c r="X20" s="1">
         <v>1</v>
       </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
       <c r="Z20" s="1">
         <v>0.2</v>
       </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>0</v>
-      </c>
       <c r="AE20" s="1">
         <v>0.5</v>
       </c>
       <c r="AF20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>0</v>
-      </c>
       <c r="AI20" s="1">
         <v>0.1</v>
       </c>
@@ -4206,8 +4281,8 @@
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>17</v>
+      <c r="B21" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>58</v>
@@ -4216,7 +4291,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F21" s="1">
         <f>VLOOKUP(D21, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G21</f>
@@ -4292,33 +4367,12 @@
       <c r="Z21" s="1">
         <v>0.2</v>
       </c>
-      <c r="AA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>0</v>
-      </c>
       <c r="AE21" s="1">
         <v>0.5</v>
       </c>
       <c r="AF21" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0</v>
-      </c>
       <c r="AK21" s="1" t="s">
         <v>228</v>
       </c>
@@ -4327,8 +4381,8 @@
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>18</v>
+      <c r="B22" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>59</v>
@@ -4337,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F22" s="1">
         <f>VLOOKUP(D22, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G22</f>
@@ -4407,23 +4461,8 @@
       <c r="X22" s="1">
         <v>1</v>
       </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
       <c r="Z22" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>0.5</v>
@@ -4431,15 +4470,6 @@
       <c r="AF22" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>0</v>
-      </c>
       <c r="AK22" s="1" t="s">
         <v>224</v>
       </c>
@@ -4448,8 +4478,8 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>19</v>
+      <c r="B23" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>60</v>
@@ -4458,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F23" s="1">
         <f>VLOOKUP(D23, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G23</f>
@@ -4528,23 +4558,8 @@
       <c r="X23" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
       <c r="Z23" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>0.7</v>
@@ -4552,15 +4567,6 @@
       <c r="AF23" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>0</v>
-      </c>
       <c r="AK23" s="1" t="s">
         <v>224</v>
       </c>
@@ -4569,8 +4575,8 @@
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>20</v>
+      <c r="B24" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>61</v>
@@ -4579,7 +4585,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F24" s="1">
         <f>VLOOKUP(D24, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G24</f>
@@ -4649,23 +4655,8 @@
       <c r="X24" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
       <c r="Z24" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>0.6</v>
@@ -4673,22 +4664,13 @@
       <c r="AF24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0</v>
-      </c>
       <c r="AK24" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>21</v>
+      <c r="B25" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>62</v>
@@ -4697,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F25" s="1">
         <f>VLOOKUP(D25, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G25</f>
@@ -4767,23 +4749,8 @@
       <c r="X25" s="1">
         <v>1</v>
       </c>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
       <c r="Z25" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>0.5</v>
@@ -4791,15 +4758,6 @@
       <c r="AF25" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>0</v>
-      </c>
       <c r="AK25" s="1" t="s">
         <v>224</v>
       </c>
@@ -4808,8 +4766,8 @@
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>22</v>
+      <c r="B26" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>63</v>
@@ -4818,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F26" s="1">
         <f>VLOOKUP(D26, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G26</f>
@@ -4888,23 +4846,8 @@
       <c r="X26" s="1">
         <v>1</v>
       </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
       <c r="Z26" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>0.6</v>
@@ -4912,22 +4855,13 @@
       <c r="AF26" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>0</v>
-      </c>
       <c r="AK26" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>23</v>
+      <c r="B27" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>64</v>
@@ -4936,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP(D27, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G27</f>
@@ -5006,23 +4940,8 @@
       <c r="X27" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
       <c r="Z27" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>0</v>
       </c>
       <c r="AE27" s="1">
         <v>0.7</v>
@@ -5030,15 +4949,6 @@
       <c r="AF27" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>0</v>
-      </c>
       <c r="AK27" s="1" t="s">
         <v>231</v>
       </c>
@@ -5047,8 +4957,8 @@
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>24</v>
+      <c r="B28" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>65</v>
@@ -5057,7 +4967,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F28" s="1">
         <f>VLOOKUP(D28, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G28</f>
@@ -5127,23 +5037,8 @@
       <c r="X28" s="1">
         <v>1</v>
       </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
       <c r="Z28" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>0</v>
       </c>
       <c r="AE28" s="1">
         <v>0.7</v>
@@ -5151,12 +5046,6 @@
       <c r="AF28" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>0</v>
-      </c>
       <c r="AI28" s="1">
         <v>0.1</v>
       </c>
@@ -5168,8 +5057,8 @@
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>25</v>
+      <c r="B29" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -5178,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F29" s="1">
         <f>VLOOKUP(D29, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G29</f>
@@ -5248,23 +5137,8 @@
       <c r="X29" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
       <c r="Z29" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>0</v>
       </c>
       <c r="AE29" s="1">
         <v>0.6</v>
@@ -5272,12 +5146,6 @@
       <c r="AF29" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>0</v>
-      </c>
       <c r="AI29" s="1">
         <v>0.1</v>
       </c>
@@ -5289,8 +5157,8 @@
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>26</v>
+      <c r="B30" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>67</v>
@@ -5299,7 +5167,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F30" s="1">
         <f>VLOOKUP(D30, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G30</f>
@@ -5369,23 +5237,8 @@
       <c r="X30" s="1">
         <v>1</v>
       </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
       <c r="Z30" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>0</v>
       </c>
       <c r="AE30" s="1">
         <v>0.7</v>
@@ -5393,12 +5246,6 @@
       <c r="AF30" s="1">
         <v>0.05</v>
       </c>
-      <c r="AG30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>0</v>
-      </c>
       <c r="AI30" s="1">
         <v>0.1</v>
       </c>
@@ -5410,8 +5257,8 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>27</v>
+      <c r="B31" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>68</v>
@@ -5420,7 +5267,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F31" s="1">
         <f>VLOOKUP(D31, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G31</f>
@@ -5490,23 +5337,8 @@
       <c r="X31" s="1">
         <v>1.2</v>
       </c>
-      <c r="Y31" s="1">
-        <v>0</v>
-      </c>
       <c r="Z31" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>0</v>
       </c>
       <c r="AE31" s="1">
         <v>0.6</v>
@@ -5514,12 +5346,6 @@
       <c r="AF31" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>0</v>
-      </c>
       <c r="AI31" s="1">
         <v>0.2</v>
       </c>
@@ -5531,8 +5357,8 @@
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>28</v>
+      <c r="B32" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>69</v>
@@ -5541,7 +5367,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F32" s="1">
         <f>VLOOKUP(D32, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G32</f>
@@ -5614,43 +5440,19 @@
       <c r="Y32" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
       <c r="AB32" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>0</v>
-      </c>
       <c r="AF32" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>0</v>
-      </c>
       <c r="AK32" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>29</v>
+      <c r="B33" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>70</v>
@@ -5659,7 +5461,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F33" s="1">
         <f>VLOOKUP(D33, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G33</f>
@@ -5732,36 +5534,12 @@
       <c r="Y33" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>0</v>
-      </c>
       <c r="AB33" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1">
-        <v>0</v>
-      </c>
       <c r="AF33" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>0</v>
-      </c>
       <c r="AK33" s="1" t="s">
         <v>238</v>
       </c>
@@ -5770,8 +5548,8 @@
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>30</v>
+      <c r="B34" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>71</v>
@@ -5780,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F34" s="1">
         <f>VLOOKUP(D34, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G34</f>
@@ -5853,36 +5631,12 @@
       <c r="Y34" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>0</v>
-      </c>
       <c r="AB34" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>0</v>
-      </c>
       <c r="AF34" s="1">
         <v>0.2</v>
       </c>
-      <c r="AG34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>0</v>
-      </c>
       <c r="AK34" s="1" t="s">
         <v>238</v>
       </c>
@@ -5891,8 +5645,8 @@
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>31</v>
+      <c r="B35" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>72</v>
@@ -5901,7 +5655,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F35" s="1">
         <f>VLOOKUP(D35, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G35</f>
@@ -5974,36 +5728,12 @@
       <c r="Y35" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
       <c r="AB35" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>0</v>
-      </c>
       <c r="AF35" s="1">
         <v>0.2</v>
       </c>
-      <c r="AG35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>0</v>
-      </c>
       <c r="AK35" s="1" t="s">
         <v>238</v>
       </c>
@@ -6012,8 +5742,8 @@
       </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>32</v>
+      <c r="B36" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>73</v>
@@ -6022,7 +5752,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F36" s="1">
         <f>VLOOKUP(D36, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G36</f>
@@ -6095,36 +5825,15 @@
       <c r="Y36" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>0</v>
-      </c>
       <c r="AB36" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0</v>
-      </c>
       <c r="AE36" s="1">
         <v>0.15</v>
       </c>
       <c r="AF36" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>0</v>
-      </c>
       <c r="AK36" s="1" t="s">
         <v>239</v>
       </c>
@@ -6133,8 +5842,8 @@
       </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>33</v>
+      <c r="B37" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>74</v>
@@ -6143,7 +5852,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F37" s="1">
         <f>VLOOKUP(D37, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G37</f>
@@ -6216,33 +5925,12 @@
       <c r="Y37" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>0</v>
-      </c>
       <c r="AB37" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>0</v>
-      </c>
       <c r="AF37" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>0</v>
-      </c>
       <c r="AI37" s="1">
         <v>0.2</v>
       </c>
@@ -6254,8 +5942,8 @@
       </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>34</v>
+      <c r="B38" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>75</v>
@@ -6264,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F38" s="1">
         <f>VLOOKUP(D38, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G38</f>
@@ -6337,33 +6025,15 @@
       <c r="Y38" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>0</v>
-      </c>
       <c r="AB38" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0</v>
-      </c>
       <c r="AE38" s="1">
         <v>0.15</v>
       </c>
       <c r="AF38" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>0</v>
-      </c>
       <c r="AI38" s="1">
         <v>0.1</v>
       </c>
@@ -6375,8 +6045,8 @@
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>35</v>
+      <c r="B39" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>76</v>
@@ -6385,7 +6055,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F39" s="1">
         <f>VLOOKUP(D39, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G39</f>
@@ -6458,33 +6128,12 @@
       <c r="Y39" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>0</v>
-      </c>
       <c r="AB39" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>0</v>
-      </c>
       <c r="AF39" s="1">
         <v>0.2</v>
       </c>
-      <c r="AG39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>0</v>
-      </c>
       <c r="AI39" s="1">
         <v>0.2</v>
       </c>
@@ -6496,8 +6145,8 @@
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>36</v>
+      <c r="B40" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>77</v>
@@ -6506,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F40" s="1">
         <f>VLOOKUP(D40, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G40</f>
@@ -6582,40 +6231,19 @@
       <c r="Z40" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>0</v>
-      </c>
       <c r="AC40" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>0</v>
-      </c>
       <c r="AF40" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>0</v>
       </c>
       <c r="AK40" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>37</v>
+      <c r="B41" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>78</v>
@@ -6624,7 +6252,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" s="1">
         <f>VLOOKUP(D41, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G41</f>
@@ -6700,40 +6328,19 @@
       <c r="Z41" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
       <c r="AC41" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>0</v>
-      </c>
       <c r="AF41" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0</v>
       </c>
       <c r="AK41" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>38</v>
+      <c r="B42" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>79</v>
@@ -6742,7 +6349,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F42" s="1">
         <f>VLOOKUP(D42, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G42</f>
@@ -6818,40 +6425,19 @@
       <c r="Z42" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
       <c r="AC42" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>0</v>
-      </c>
       <c r="AF42" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0</v>
       </c>
       <c r="AK42" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>39</v>
+      <c r="B43" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>80</v>
@@ -6860,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP(D43, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G43</f>
@@ -6936,29 +6522,11 @@
       <c r="Z43" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
       <c r="AC43" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>0</v>
-      </c>
       <c r="AF43" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>0</v>
       </c>
       <c r="AI43" s="1">
         <v>0.05</v>
@@ -6971,8 +6539,8 @@
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>40</v>
+      <c r="B44" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>81</v>
@@ -6981,7 +6549,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F44" s="1">
         <f>VLOOKUP(D44, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G44</f>
@@ -7057,29 +6625,11 @@
       <c r="Z44" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
       <c r="AC44" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="1">
-        <v>0</v>
-      </c>
       <c r="AF44" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="1">
-        <v>0</v>
       </c>
       <c r="AI44" s="1">
         <v>0.1</v>
@@ -7092,8 +6642,8 @@
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <v>41</v>
+      <c r="B45" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>82</v>
@@ -7102,7 +6652,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="1">
         <f>VLOOKUP(D45, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G45</f>
@@ -7181,26 +6731,11 @@
       <c r="AA45" s="1">
         <v>0.15</v>
       </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
       <c r="AC45" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="1">
-        <v>0</v>
-      </c>
       <c r="AF45" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="1">
-        <v>0</v>
       </c>
       <c r="AI45" s="1">
         <v>0.1</v>
@@ -7213,8 +6748,8 @@
       </c>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <v>42</v>
+      <c r="B46" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>83</v>
@@ -7223,7 +6758,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F46" s="1">
         <f>VLOOKUP(D46, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G46</f>
@@ -7299,26 +6834,11 @@
       <c r="Z46" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
       <c r="AC46" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="1">
-        <v>0</v>
-      </c>
       <c r="AF46" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG46" s="1">
-        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0.1</v>
@@ -7334,8 +6854,8 @@
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <v>43</v>
+      <c r="B47" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>84</v>
@@ -7344,7 +6864,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F47" s="1">
         <f>VLOOKUP(D47, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G47</f>
@@ -7420,29 +6940,11 @@
       <c r="Z47" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
       <c r="AC47" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="1">
-        <v>0</v>
-      </c>
       <c r="AF47" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="1">
-        <v>0</v>
       </c>
       <c r="AI47" s="1">
         <v>0.1</v>
@@ -7455,8 +6957,8 @@
       </c>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <v>44</v>
+      <c r="B48" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>85</v>
@@ -7465,7 +6967,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F48" s="1">
         <f>VLOOKUP(D48, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G48</f>
@@ -7544,26 +7046,11 @@
       <c r="AA48" s="1">
         <v>0.15</v>
       </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
       <c r="AC48" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="1">
-        <v>0</v>
-      </c>
       <c r="AF48" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="1">
-        <v>0</v>
       </c>
       <c r="AI48" s="1">
         <v>0.1</v>
@@ -7576,8 +7063,8 @@
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <v>45</v>
+      <c r="B49" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>86</v>
@@ -7586,7 +7073,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F49" s="1">
         <f>VLOOKUP(D49, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G49</f>
@@ -7659,43 +7146,22 @@
       <c r="Y49" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>0</v>
-      </c>
       <c r="AB49" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>0</v>
-      </c>
       <c r="AG49" s="1">
         <v>0.1</v>
       </c>
       <c r="AH49" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0</v>
       </c>
       <c r="AK49" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>46</v>
+      <c r="B50" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>87</v>
@@ -7704,7 +7170,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP(D50, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G50</f>
@@ -7777,36 +7243,15 @@
       <c r="Y50" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>0</v>
-      </c>
       <c r="AB50" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>0</v>
-      </c>
       <c r="AG50" s="1">
         <v>0.1</v>
       </c>
       <c r="AH50" s="1">
         <v>0.2</v>
       </c>
-      <c r="AI50" s="1">
-        <v>0</v>
-      </c>
       <c r="AK50" s="1" t="s">
         <v>246</v>
       </c>
@@ -7815,8 +7260,8 @@
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>47</v>
+      <c r="B51" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>88</v>
@@ -7825,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F51" s="1">
         <f>VLOOKUP(D51, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G51</f>
@@ -7898,36 +7343,15 @@
       <c r="Y51" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>0</v>
-      </c>
       <c r="AB51" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>0</v>
-      </c>
       <c r="AG51" s="1">
         <v>0.1</v>
       </c>
       <c r="AH51" s="1">
         <v>0.2</v>
       </c>
-      <c r="AI51" s="1">
-        <v>0</v>
-      </c>
       <c r="AK51" s="1" t="s">
         <v>246</v>
       </c>
@@ -7936,8 +7360,8 @@
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <v>48</v>
+      <c r="B52" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>89</v>
@@ -7946,7 +7370,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F52" s="1">
         <f>VLOOKUP(D52, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G52</f>
@@ -8019,27 +7443,9 @@
       <c r="Y52" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>0</v>
-      </c>
       <c r="AB52" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>0</v>
-      </c>
       <c r="AG52" s="1">
         <v>0.1</v>
       </c>
@@ -8057,8 +7463,8 @@
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <v>49</v>
+      <c r="B53" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>90</v>
@@ -8067,7 +7473,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F53" s="1">
         <f>VLOOKUP(D53, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G53</f>
@@ -8140,27 +7546,9 @@
       <c r="Y53" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>0</v>
-      </c>
       <c r="AB53" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="1">
-        <v>0</v>
-      </c>
       <c r="AG53" s="1">
         <v>0.1</v>
       </c>
@@ -8175,8 +7563,8 @@
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <v>50</v>
+      <c r="B54" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>91</v>
@@ -8185,7 +7573,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F54" s="1">
         <f>VLOOKUP(D54, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G54</f>
@@ -8258,27 +7646,9 @@
       <c r="Y54" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>0</v>
-      </c>
       <c r="AB54" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="1">
-        <v>0</v>
-      </c>
       <c r="AG54" s="1">
         <v>0.1</v>
       </c>
@@ -8296,8 +7666,8 @@
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <v>51</v>
+      <c r="B55" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>92</v>
@@ -8306,7 +7676,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F55" s="1">
         <f>VLOOKUP(D55, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G55</f>
@@ -8379,24 +7749,9 @@
       <c r="Y55" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>0</v>
-      </c>
       <c r="AB55" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="1">
-        <v>0</v>
-      </c>
       <c r="AF55" s="1">
         <v>0.1</v>
       </c>
@@ -8414,8 +7769,8 @@
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
-        <v>52</v>
+      <c r="B56" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>93</v>
@@ -8424,7 +7779,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F56" s="1">
         <f>VLOOKUP(D56, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G56</f>
@@ -8497,27 +7852,9 @@
       <c r="Y56" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z56" s="1">
-        <v>0</v>
-      </c>
       <c r="AA56" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>0</v>
-      </c>
       <c r="AG56" s="1">
         <v>0.1</v>
       </c>
@@ -8535,8 +7872,8 @@
       </c>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
-        <v>53</v>
+      <c r="B57" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>94</v>
@@ -8545,7 +7882,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP(D57, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G57</f>
@@ -8618,35 +7955,11 @@
       <c r="Y57" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>0</v>
-      </c>
       <c r="AD57" s="1">
         <v>0.5</v>
       </c>
-      <c r="AE57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>0</v>
-      </c>
       <c r="AG57" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="1">
-        <v>0</v>
       </c>
       <c r="AK57" s="1" t="s">
         <v>220</v>
@@ -8656,8 +7969,8 @@
       </c>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B58" s="1">
-        <v>54</v>
+      <c r="B58" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>95</v>
@@ -8666,7 +7979,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP(D58, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G58</f>
@@ -8739,32 +8052,11 @@
       <c r="Y58" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>0</v>
-      </c>
       <c r="AD58" s="1">
         <v>0.5</v>
       </c>
-      <c r="AE58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>0</v>
-      </c>
       <c r="AG58" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH58" s="1">
-        <v>0</v>
       </c>
       <c r="AI58" s="1">
         <v>0.1</v>
@@ -8777,8 +8069,8 @@
       </c>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <v>55</v>
+      <c r="B59" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>96</v>
@@ -8787,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP(D59, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G59</f>
@@ -8860,43 +8152,22 @@
       <c r="Y59" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>0</v>
-      </c>
       <c r="AB59" s="1">
         <v>0.25</v>
       </c>
-      <c r="AC59" s="1">
-        <v>0</v>
-      </c>
       <c r="AD59" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>0</v>
-      </c>
       <c r="AG59" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="1">
-        <v>0</v>
       </c>
       <c r="AK59" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <v>56</v>
+      <c r="B60" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>97</v>
@@ -8905,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP(D60, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G60</f>
@@ -8978,35 +8249,14 @@
       <c r="Y60" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="1">
-        <v>0</v>
-      </c>
       <c r="AB60" s="1">
         <v>0.25</v>
       </c>
-      <c r="AC60" s="1">
-        <v>0</v>
-      </c>
       <c r="AD60" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>0</v>
-      </c>
       <c r="AG60" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>0</v>
       </c>
       <c r="AK60" s="1" t="s">
         <v>248</v>
@@ -9016,8 +8266,8 @@
       </c>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <v>57</v>
+      <c r="B61" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>98</v>
@@ -9026,7 +8276,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP(D61, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G61</f>
@@ -9099,35 +8349,14 @@
       <c r="Y61" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="1">
-        <v>0</v>
-      </c>
       <c r="AB61" s="1">
         <v>0.25</v>
       </c>
-      <c r="AC61" s="1">
-        <v>0</v>
-      </c>
       <c r="AD61" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>0</v>
-      </c>
       <c r="AG61" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>0</v>
       </c>
       <c r="AK61" s="1" t="s">
         <v>248</v>
@@ -9137,8 +8366,8 @@
       </c>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <v>58</v>
+      <c r="B62" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>99</v>
@@ -9147,7 +8376,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP(D62, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G62</f>
@@ -9220,35 +8449,17 @@
       <c r="Y62" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="1">
-        <v>0</v>
-      </c>
       <c r="AB62" s="1">
         <v>0.25</v>
       </c>
-      <c r="AC62" s="1">
-        <v>0</v>
-      </c>
       <c r="AD62" s="1">
         <v>0.25</v>
       </c>
       <c r="AE62" s="1">
         <v>0.15</v>
       </c>
-      <c r="AF62" s="1">
-        <v>0</v>
-      </c>
       <c r="AG62" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="1">
-        <v>0</v>
       </c>
       <c r="AK62" s="1" t="s">
         <v>224</v>
@@ -9258,8 +8469,8 @@
       </c>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <v>59</v>
+      <c r="B63" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>100</v>
@@ -9268,7 +8479,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP(D63, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G63</f>
@@ -9341,32 +8552,17 @@
       <c r="Y63" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>0</v>
-      </c>
       <c r="AB63" s="1">
         <v>0.25</v>
       </c>
-      <c r="AC63" s="1">
-        <v>0</v>
-      </c>
       <c r="AD63" s="1">
         <v>0.25</v>
       </c>
       <c r="AE63" s="1">
         <v>0.15</v>
       </c>
-      <c r="AF63" s="1">
-        <v>0</v>
-      </c>
       <c r="AG63" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH63" s="1">
-        <v>0</v>
       </c>
       <c r="AI63" s="1">
         <v>0.1</v>
@@ -9379,8 +8575,8 @@
       </c>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B64" s="1">
-        <v>60</v>
+      <c r="B64" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>101</v>
@@ -9389,7 +8585,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP(D64, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G64</f>
@@ -9462,32 +8658,14 @@
       <c r="Y64" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z64" s="1">
-        <v>0</v>
-      </c>
       <c r="AA64" s="1">
         <v>0.3</v>
       </c>
       <c r="AB64" s="1">
         <v>0.25</v>
       </c>
-      <c r="AC64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>0</v>
-      </c>
       <c r="AG64" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH64" s="1">
-        <v>0</v>
       </c>
       <c r="AI64" s="1">
         <v>0.1</v>
@@ -9500,8 +8678,8 @@
       </c>
     </row>
     <row r="65" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B65" s="1">
-        <v>61</v>
+      <c r="B65" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>102</v>
@@ -9510,7 +8688,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP(D65, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G65</f>
@@ -9583,32 +8761,11 @@
       <c r="Y65" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="1">
-        <v>0</v>
-      </c>
       <c r="AB65" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>0</v>
-      </c>
       <c r="AG65" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH65" s="1">
-        <v>0</v>
       </c>
       <c r="AI65" s="1">
         <v>0.2</v>
@@ -9621,8 +8778,8 @@
       </c>
     </row>
     <row r="66" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <v>62</v>
+      <c r="B66" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>103</v>
@@ -9631,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F66" s="1">
         <f>VLOOKUP(D66, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G66</f>
@@ -9704,43 +8861,25 @@
       <c r="Y66" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="1">
-        <v>0</v>
-      </c>
       <c r="AB66" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>0</v>
       </c>
       <c r="AD66" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>0</v>
-      </c>
       <c r="AG66" s="1">
         <v>0.1</v>
       </c>
       <c r="AH66" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>0</v>
       </c>
       <c r="AK66" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="67" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <v>63</v>
+      <c r="B67" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>104</v>
@@ -9749,7 +8888,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F67" s="1">
         <f>VLOOKUP(D67, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G67</f>
@@ -9822,35 +8961,14 @@
       <c r="Y67" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z67" s="1">
-        <v>0</v>
-      </c>
       <c r="AA67" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>0</v>
-      </c>
       <c r="AG67" s="1">
         <v>0.1</v>
       </c>
       <c r="AH67" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>0</v>
       </c>
       <c r="AK67" s="1" t="s">
         <v>259</v>
@@ -9860,8 +8978,8 @@
       </c>
     </row>
     <row r="68" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>64</v>
+      <c r="B68" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>105</v>
@@ -9870,7 +8988,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F68" s="1">
         <f>VLOOKUP(D68, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G68</f>
@@ -9943,27 +9061,12 @@
       <c r="Y68" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="1">
-        <v>0</v>
-      </c>
       <c r="AB68" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>0</v>
       </c>
       <c r="AD68" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>0</v>
-      </c>
       <c r="AG68" s="1">
         <v>0.1</v>
       </c>
@@ -9981,8 +9084,8 @@
       </c>
     </row>
     <row r="69" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>65</v>
+      <c r="B69" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>106</v>
@@ -9991,7 +9094,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F69" s="1">
         <f>VLOOKUP(D69, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G69</f>
@@ -10064,27 +9167,12 @@
       <c r="Y69" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="1">
-        <v>0</v>
-      </c>
       <c r="AB69" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AC69" s="1">
-        <v>0</v>
       </c>
       <c r="AD69" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>0</v>
-      </c>
       <c r="AG69" s="1">
         <v>0.1</v>
       </c>
@@ -10102,8 +9190,8 @@
       </c>
     </row>
     <row r="70" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
-        <v>66</v>
+      <c r="B70" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>107</v>
@@ -10112,7 +9200,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F70" s="1">
         <f>VLOOKUP(D70, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G70</f>
@@ -10185,33 +9273,15 @@
       <c r="Y70" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="1">
-        <v>0</v>
-      </c>
       <c r="AB70" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>0</v>
       </c>
       <c r="AD70" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>0</v>
-      </c>
       <c r="AG70" s="1">
         <v>0.05</v>
       </c>
-      <c r="AH70" s="1">
-        <v>0</v>
-      </c>
       <c r="AI70" s="1">
         <v>0.1</v>
       </c>
@@ -10223,8 +9293,8 @@
       </c>
     </row>
     <row r="71" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B71" s="1">
-        <v>67</v>
+      <c r="B71" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>108</v>
@@ -10233,7 +9303,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP(D71, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G71</f>
@@ -10306,27 +9376,12 @@
       <c r="Y71" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="1">
-        <v>0</v>
-      </c>
       <c r="AB71" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AC71" s="1">
-        <v>0</v>
       </c>
       <c r="AD71" s="1">
         <v>0.25</v>
       </c>
-      <c r="AE71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>0</v>
-      </c>
       <c r="AG71" s="1">
         <v>0.1</v>
       </c>
@@ -10344,8 +9399,8 @@
       </c>
     </row>
     <row r="72" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <v>68</v>
+      <c r="B72" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>109</v>
@@ -10354,7 +9409,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F72" s="1">
         <f>VLOOKUP(D72, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G72</f>
@@ -10427,30 +9482,15 @@
       <c r="Y72" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="1">
-        <v>0</v>
-      </c>
       <c r="AB72" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>0</v>
-      </c>
       <c r="AE72" s="1">
         <v>0.1</v>
       </c>
       <c r="AF72" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG72" s="1">
-        <v>0</v>
-      </c>
       <c r="AH72" s="1">
         <v>0.1</v>
       </c>
@@ -10458,15 +9498,15 @@
         <v>0.1</v>
       </c>
       <c r="AK72" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL72" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="73" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
-        <v>69</v>
+      <c r="B73" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>110</v>
@@ -10475,7 +9515,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP(D73, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G73</f>
@@ -10548,32 +9588,11 @@
       <c r="Y73" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="1">
-        <v>0</v>
-      </c>
       <c r="AB73" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="1">
-        <v>0</v>
-      </c>
       <c r="AF73" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="1">
-        <v>0</v>
       </c>
       <c r="AI73" s="1">
         <v>0.1</v>
@@ -10582,12 +9601,12 @@
         <v>263</v>
       </c>
       <c r="AL73" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
-        <v>70</v>
+      <c r="B74" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>111</v>
@@ -10596,7 +9615,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP(D74, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G74</f>
@@ -10669,32 +9688,11 @@
       <c r="Y74" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="1">
-        <v>0</v>
-      </c>
       <c r="AB74" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="1">
-        <v>0</v>
-      </c>
       <c r="AF74" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH74" s="1">
-        <v>0</v>
       </c>
       <c r="AI74" s="1">
         <v>0.1</v>
@@ -10707,8 +9705,8 @@
       </c>
     </row>
     <row r="75" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <v>71</v>
+      <c r="B75" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>112</v>
@@ -10717,7 +9715,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP(D75, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G75</f>
@@ -10790,29 +9788,11 @@
       <c r="Y75" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="1">
-        <v>0</v>
-      </c>
       <c r="AB75" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="1">
-        <v>0</v>
-      </c>
       <c r="AF75" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG75" s="1">
-        <v>0</v>
       </c>
       <c r="AH75" s="1">
         <v>0.1</v>
@@ -10828,8 +9808,8 @@
       </c>
     </row>
     <row r="76" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B76" s="1">
-        <v>72</v>
+      <c r="B76" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>113</v>
@@ -10838,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F76" s="1">
         <f>VLOOKUP(D76, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G76</f>
@@ -10911,32 +9891,11 @@
       <c r="Y76" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="1">
-        <v>0</v>
-      </c>
       <c r="AB76" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE76" s="1">
-        <v>0</v>
-      </c>
       <c r="AF76" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH76" s="1">
-        <v>0</v>
       </c>
       <c r="AI76" s="1">
         <v>0.1</v>
@@ -10949,8 +9908,8 @@
       </c>
     </row>
     <row r="77" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B77" s="1">
-        <v>73</v>
+      <c r="B77" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>114</v>
@@ -10959,7 +9918,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F77" s="1">
         <f>VLOOKUP(D77, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G77</f>
@@ -11032,32 +9991,11 @@
       <c r="Y77" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z77" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="1">
-        <v>0</v>
-      </c>
       <c r="AB77" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC77" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE77" s="1">
-        <v>0</v>
-      </c>
       <c r="AF77" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG77" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH77" s="1">
-        <v>0</v>
       </c>
       <c r="AI77" s="1">
         <v>0.1</v>
@@ -11067,8 +10005,8 @@
       </c>
     </row>
     <row r="78" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B78" s="1">
-        <v>74</v>
+      <c r="B78" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>115</v>
@@ -11077,7 +10015,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F78" s="1">
         <f>VLOOKUP(D78, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G78</f>
@@ -11150,32 +10088,11 @@
       <c r="Y78" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="1">
-        <v>0</v>
-      </c>
       <c r="AB78" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE78" s="1">
-        <v>0</v>
-      </c>
       <c r="AF78" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH78" s="1">
-        <v>0</v>
       </c>
       <c r="AI78" s="1">
         <v>0.1</v>
@@ -11188,8 +10105,8 @@
       </c>
     </row>
     <row r="79" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B79" s="1">
-        <v>75</v>
+      <c r="B79" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>116</v>
@@ -11198,7 +10115,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F79" s="1">
         <f>VLOOKUP(D79, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G79</f>
@@ -11271,32 +10188,11 @@
       <c r="Y79" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="1">
-        <v>0</v>
-      </c>
       <c r="AB79" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="1">
-        <v>0</v>
-      </c>
       <c r="AF79" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH79" s="1">
-        <v>0</v>
       </c>
       <c r="AI79" s="1">
         <v>0.1</v>
@@ -11309,8 +10205,8 @@
       </c>
     </row>
     <row r="80" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B80" s="1">
-        <v>76</v>
+      <c r="B80" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>117</v>
@@ -11319,7 +10215,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F80" s="1">
         <f>VLOOKUP(D80, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G80</f>
@@ -11392,32 +10288,11 @@
       <c r="Y80" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="1">
-        <v>0</v>
-      </c>
       <c r="AB80" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE80" s="1">
-        <v>0</v>
-      </c>
       <c r="AF80" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH80" s="1">
-        <v>0</v>
       </c>
       <c r="AI80" s="1">
         <v>0.1</v>
@@ -11430,8 +10305,8 @@
       </c>
     </row>
     <row r="81" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B81" s="1">
-        <v>77</v>
+      <c r="B81" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>118</v>
@@ -11440,7 +10315,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F81" s="1">
         <f>VLOOKUP(D81, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G81</f>
@@ -11513,32 +10388,11 @@
       <c r="Y81" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="1">
-        <v>0</v>
-      </c>
       <c r="AB81" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="1">
-        <v>0</v>
-      </c>
       <c r="AF81" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH81" s="1">
-        <v>0</v>
       </c>
       <c r="AI81" s="1">
         <v>0.1</v>
@@ -11551,8 +10405,8 @@
       </c>
     </row>
     <row r="82" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B82" s="1">
-        <v>78</v>
+      <c r="B82" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>119</v>
@@ -11561,7 +10415,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F82" s="1">
         <f>VLOOKUP(D82, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G82</f>
@@ -11634,32 +10488,11 @@
       <c r="Y82" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="1">
-        <v>0</v>
-      </c>
       <c r="AB82" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="1">
-        <v>0</v>
-      </c>
       <c r="AF82" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH82" s="1">
-        <v>0</v>
       </c>
       <c r="AI82" s="1">
         <v>0.2</v>
@@ -11672,8 +10505,8 @@
       </c>
     </row>
     <row r="83" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B83" s="1">
-        <v>79</v>
+      <c r="B83" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>120</v>
@@ -11682,7 +10515,7 @@
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F83" s="1">
         <f>VLOOKUP(D83, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G83</f>
@@ -11755,32 +10588,11 @@
       <c r="Y83" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="1">
-        <v>0</v>
-      </c>
       <c r="AB83" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="1">
-        <v>0</v>
-      </c>
       <c r="AF83" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH83" s="1">
-        <v>0</v>
       </c>
       <c r="AI83" s="1">
         <v>0.2</v>
@@ -11793,8 +10605,8 @@
       </c>
     </row>
     <row r="84" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B84" s="1">
-        <v>80</v>
+      <c r="B84" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>121</v>
@@ -11803,7 +10615,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F84" s="1">
         <f>VLOOKUP(D84, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G84</f>
@@ -11876,32 +10688,11 @@
       <c r="Y84" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="1">
-        <v>0</v>
-      </c>
       <c r="AB84" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="1">
-        <v>0</v>
-      </c>
       <c r="AF84" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH84" s="1">
-        <v>0</v>
       </c>
       <c r="AI84" s="1">
         <v>0.2</v>
@@ -11914,8 +10705,8 @@
       </c>
     </row>
     <row r="85" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B85" s="1">
-        <v>81</v>
+      <c r="B85" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>122</v>
@@ -11924,7 +10715,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F85" s="1">
         <f>VLOOKUP(D85, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G85</f>
@@ -11997,32 +10788,11 @@
       <c r="Y85" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z85" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="1">
-        <v>0</v>
-      </c>
       <c r="AB85" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC85" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="1">
-        <v>0</v>
-      </c>
       <c r="AF85" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG85" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="1">
-        <v>0</v>
       </c>
       <c r="AI85" s="1">
         <v>0.2</v>
@@ -12035,8 +10805,8 @@
       </c>
     </row>
     <row r="86" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B86" s="1">
-        <v>82</v>
+      <c r="B86" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>123</v>
@@ -12045,7 +10815,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F86" s="1">
         <f>VLOOKUP(D86, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G86</f>
@@ -12118,32 +10888,11 @@
       <c r="Y86" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="1">
-        <v>0</v>
-      </c>
       <c r="AB86" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="1">
-        <v>0</v>
-      </c>
       <c r="AF86" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="1">
-        <v>0</v>
       </c>
       <c r="AI86" s="1">
         <v>0.1</v>
@@ -12156,8 +10905,8 @@
       </c>
     </row>
     <row r="87" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B87" s="1">
-        <v>83</v>
+      <c r="B87" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>124</v>
@@ -12166,7 +10915,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F87" s="1">
         <f>VLOOKUP(D87, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G87</f>
@@ -12239,32 +10988,11 @@
       <c r="Y87" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z87" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="1">
-        <v>0</v>
-      </c>
       <c r="AB87" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC87" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE87" s="1">
-        <v>0</v>
-      </c>
       <c r="AF87" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG87" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH87" s="1">
-        <v>0</v>
       </c>
       <c r="AI87" s="1">
         <v>0.15</v>
@@ -12277,8 +11005,8 @@
       </c>
     </row>
     <row r="88" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B88" s="1">
-        <v>84</v>
+      <c r="B88" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>125</v>
@@ -12287,7 +11015,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F88" s="1">
         <f>VLOOKUP(D88, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G88</f>
@@ -12360,32 +11088,11 @@
       <c r="Y88" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="1">
-        <v>0</v>
-      </c>
       <c r="AB88" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE88" s="1">
-        <v>0</v>
-      </c>
       <c r="AF88" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH88" s="1">
-        <v>0</v>
       </c>
       <c r="AI88" s="1">
         <v>0.15</v>
@@ -12398,8 +11105,8 @@
       </c>
     </row>
     <row r="89" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B89" s="1">
-        <v>85</v>
+      <c r="B89" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>126</v>
@@ -12408,7 +11115,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F89" s="1">
         <f>VLOOKUP(D89, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G89</f>
@@ -12481,32 +11188,11 @@
       <c r="Y89" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="1">
-        <v>0</v>
-      </c>
       <c r="AB89" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="1">
-        <v>0</v>
-      </c>
       <c r="AF89" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH89" s="1">
-        <v>0</v>
       </c>
       <c r="AI89" s="1">
         <v>0.2</v>
@@ -12519,8 +11205,8 @@
       </c>
     </row>
     <row r="90" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B90" s="1">
-        <v>86</v>
+      <c r="B90" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>127</v>
@@ -12529,7 +11215,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F90" s="1">
         <f>VLOOKUP(D90, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G90</f>
@@ -12602,32 +11288,11 @@
       <c r="Y90" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="1">
-        <v>0</v>
-      </c>
       <c r="AB90" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AC90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE90" s="1">
-        <v>0</v>
-      </c>
       <c r="AF90" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH90" s="1">
-        <v>0</v>
       </c>
       <c r="AI90" s="1">
         <v>0.2</v>
@@ -12640,8 +11305,8 @@
       </c>
     </row>
     <row r="91" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B91" s="1">
-        <v>87</v>
+      <c r="B91" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>128</v>
@@ -12650,7 +11315,7 @@
         <v>7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F91" s="1">
         <f>VLOOKUP(D91, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G91</f>
@@ -12723,32 +11388,11 @@
       <c r="Y91" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z91" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="1">
-        <v>0</v>
-      </c>
       <c r="AB91" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AC91" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="1">
-        <v>0</v>
-      </c>
       <c r="AF91" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG91" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH91" s="1">
-        <v>0</v>
       </c>
       <c r="AI91" s="1">
         <v>0.25</v>
@@ -12761,8 +11405,8 @@
       </c>
     </row>
     <row r="92" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B92" s="1">
-        <v>88</v>
+      <c r="B92" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>129</v>
@@ -12771,7 +11415,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F92" s="1">
         <f>VLOOKUP(D92, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G92</f>
@@ -12844,33 +11488,12 @@
       <c r="Y92" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z92" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="1">
-        <v>0</v>
-      </c>
       <c r="AB92" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC92" s="1">
-        <v>0</v>
-      </c>
       <c r="AD92" s="1">
         <v>0.6</v>
       </c>
-      <c r="AE92" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF92" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH92" s="1">
-        <v>0</v>
-      </c>
       <c r="AI92" s="1">
         <v>0.05</v>
       </c>
@@ -12879,8 +11502,8 @@
       </c>
     </row>
     <row r="93" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B93" s="1">
-        <v>89</v>
+      <c r="B93" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>130</v>
@@ -12889,7 +11512,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP(D93, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G93</f>
@@ -12962,33 +11585,12 @@
       <c r="Y93" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="1">
-        <v>0</v>
-      </c>
       <c r="AB93" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC93" s="1">
-        <v>0</v>
-      </c>
       <c r="AD93" s="1">
         <v>0.6</v>
       </c>
-      <c r="AE93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH93" s="1">
-        <v>0</v>
-      </c>
       <c r="AI93" s="1">
         <v>0.05</v>
       </c>
@@ -13000,8 +11602,8 @@
       </c>
     </row>
     <row r="94" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B94" s="1">
-        <v>90</v>
+      <c r="B94" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>131</v>
@@ -13010,7 +11612,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F94" s="1">
         <f>VLOOKUP(D94, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G94</f>
@@ -13083,35 +11685,11 @@
       <c r="Y94" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="1">
-        <v>0</v>
-      </c>
       <c r="AB94" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE94" s="1">
-        <v>0</v>
-      </c>
       <c r="AF94" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="1">
-        <v>0</v>
       </c>
       <c r="AK94" s="1" t="s">
         <v>279</v>
@@ -13121,8 +11699,8 @@
       </c>
     </row>
     <row r="95" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B95" s="1">
-        <v>91</v>
+      <c r="B95" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>132</v>
@@ -13131,7 +11709,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F95" s="1">
         <f>VLOOKUP(D95, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G95</f>
@@ -13204,32 +11782,11 @@
       <c r="Y95" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="1">
-        <v>0</v>
-      </c>
       <c r="AB95" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE95" s="1">
-        <v>0</v>
-      </c>
       <c r="AF95" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH95" s="1">
-        <v>0</v>
       </c>
       <c r="AI95" s="1">
         <v>0.15</v>
@@ -13242,8 +11799,8 @@
       </c>
     </row>
     <row r="96" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B96" s="1">
-        <v>92</v>
+      <c r="B96" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>133</v>
@@ -13252,7 +11809,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F96" s="1">
         <f>VLOOKUP(D96, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G96</f>
@@ -13325,35 +11882,11 @@
       <c r="Y96" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="1">
-        <v>0</v>
-      </c>
       <c r="AB96" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE96" s="1">
-        <v>0</v>
-      </c>
       <c r="AF96" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="1">
-        <v>0</v>
       </c>
       <c r="AK96" s="1" t="s">
         <v>218</v>
@@ -13363,8 +11896,8 @@
       </c>
     </row>
     <row r="97" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B97" s="1">
-        <v>93</v>
+      <c r="B97" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>134</v>
@@ -13373,7 +11906,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F97" s="1">
         <f>VLOOKUP(D97, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G97</f>
@@ -13443,35 +11976,14 @@
       <c r="X97" s="1">
         <v>1</v>
       </c>
-      <c r="Y97" s="1">
-        <v>0</v>
-      </c>
       <c r="Z97" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AA97" s="1">
-        <v>0</v>
       </c>
       <c r="AB97" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="1">
-        <v>0</v>
-      </c>
       <c r="AF97" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH97" s="1">
-        <v>0</v>
       </c>
       <c r="AI97" s="1">
         <v>0.1</v>
@@ -13481,8 +11993,8 @@
       </c>
     </row>
     <row r="98" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B98" s="1">
-        <v>94</v>
+      <c r="B98" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>135</v>
@@ -13491,7 +12003,7 @@
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F98" s="1">
         <f>VLOOKUP(D98, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G98</f>
@@ -13564,32 +12076,11 @@
       <c r="Y98" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="1">
-        <v>0</v>
-      </c>
       <c r="AB98" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="1">
-        <v>0</v>
-      </c>
       <c r="AF98" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="1">
-        <v>0</v>
       </c>
       <c r="AI98" s="1">
         <v>0.1</v>
@@ -13602,8 +12093,8 @@
       </c>
     </row>
     <row r="99" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B99" s="1">
-        <v>95</v>
+      <c r="B99" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>136</v>
@@ -13612,7 +12103,7 @@
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F99" s="1">
         <f>VLOOKUP(D99, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G99</f>
@@ -13685,32 +12176,11 @@
       <c r="Y99" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="1">
-        <v>0</v>
-      </c>
       <c r="AB99" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="1">
-        <v>0</v>
-      </c>
       <c r="AF99" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH99" s="1">
-        <v>0</v>
       </c>
       <c r="AI99" s="1">
         <v>0.15</v>
@@ -13723,8 +12193,8 @@
       </c>
     </row>
     <row r="100" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B100" s="1">
-        <v>96</v>
+      <c r="B100" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>137</v>
@@ -13733,7 +12203,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F100" s="1">
         <f>VLOOKUP(D100, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G100</f>
@@ -13806,32 +12276,11 @@
       <c r="Y100" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="1">
-        <v>0</v>
-      </c>
       <c r="AB100" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE100" s="1">
-        <v>0</v>
-      </c>
       <c r="AF100" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="1">
-        <v>0</v>
       </c>
       <c r="AI100" s="1">
         <v>0.05</v>
@@ -13841,8 +12290,8 @@
       </c>
     </row>
     <row r="101" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B101" s="1">
-        <v>97</v>
+      <c r="B101" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>138</v>
@@ -13851,7 +12300,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F101" s="1">
         <f>VLOOKUP(D101, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G101</f>
@@ -13924,32 +12373,11 @@
       <c r="Y101" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="1">
-        <v>0</v>
-      </c>
       <c r="AB101" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="1">
-        <v>0</v>
-      </c>
       <c r="AF101" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="1">
-        <v>0</v>
       </c>
       <c r="AI101" s="1">
         <v>0.05</v>
@@ -13962,8 +12390,8 @@
       </c>
     </row>
     <row r="102" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B102" s="1">
-        <v>98</v>
+      <c r="B102" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>139</v>
@@ -13972,7 +12400,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F102" s="1">
         <f>VLOOKUP(D102, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G102</f>
@@ -14045,33 +12473,12 @@
       <c r="Y102" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="1">
-        <v>0</v>
-      </c>
       <c r="AB102" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE102" s="1">
-        <v>0</v>
-      </c>
       <c r="AF102" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH102" s="1">
-        <v>0</v>
-      </c>
       <c r="AI102" s="1">
         <v>0.05</v>
       </c>
@@ -14083,8 +12490,8 @@
       </c>
     </row>
     <row r="103" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B103" s="1">
-        <v>99</v>
+      <c r="B103" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>140</v>
@@ -14093,7 +12500,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F103" s="1">
         <f>VLOOKUP(D103, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G103</f>
@@ -14166,33 +12573,12 @@
       <c r="Y103" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z103" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="1">
-        <v>0</v>
-      </c>
       <c r="AB103" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC103" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD103" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="1">
-        <v>0</v>
-      </c>
       <c r="AF103" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG103" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH103" s="1">
-        <v>0</v>
-      </c>
       <c r="AI103" s="1">
         <v>0.05</v>
       </c>
@@ -14204,8 +12590,8 @@
       </c>
     </row>
     <row r="104" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B104" s="1">
-        <v>100</v>
+      <c r="B104" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>141</v>
@@ -14214,7 +12600,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F104" s="1">
         <f>VLOOKUP(D104, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G104</f>
@@ -14287,33 +12673,12 @@
       <c r="Y104" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="1">
-        <v>0</v>
-      </c>
       <c r="AB104" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE104" s="1">
-        <v>0</v>
-      </c>
       <c r="AF104" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH104" s="1">
-        <v>0</v>
-      </c>
       <c r="AI104" s="1">
         <v>0.05</v>
       </c>
@@ -14325,8 +12690,8 @@
       </c>
     </row>
     <row r="105" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B105" s="1">
-        <v>101</v>
+      <c r="B105" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>142</v>
@@ -14335,7 +12700,7 @@
         <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F105" s="1">
         <f>VLOOKUP(D105, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G105</f>
@@ -14408,33 +12773,12 @@
       <c r="Y105" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z105" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="1">
-        <v>0</v>
-      </c>
       <c r="AB105" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC105" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD105" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE105" s="1">
-        <v>0</v>
-      </c>
       <c r="AF105" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG105" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH105" s="1">
-        <v>0</v>
-      </c>
       <c r="AI105" s="1">
         <v>0.1</v>
       </c>
@@ -14446,8 +12790,8 @@
       </c>
     </row>
     <row r="106" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B106" s="1">
-        <v>102</v>
+      <c r="B106" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>143</v>
@@ -14456,7 +12800,7 @@
         <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F106" s="1">
         <f>VLOOKUP(D106, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G106</f>
@@ -14529,30 +12873,15 @@
       <c r="Y106" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z106" s="1">
-        <v>0</v>
-      </c>
       <c r="AA106" s="1">
         <v>0.2</v>
       </c>
       <c r="AB106" s="1">
         <v>0.2</v>
       </c>
-      <c r="AC106" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>0</v>
-      </c>
       <c r="AF106" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG106" s="1">
-        <v>0</v>
-      </c>
       <c r="AH106" s="1">
         <v>0.05</v>
       </c>
@@ -14567,8 +12896,8 @@
       </c>
     </row>
     <row r="107" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B107" s="1">
-        <v>103</v>
+      <c r="B107" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>144</v>
@@ -14577,7 +12906,7 @@
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F107" s="1">
         <f>VLOOKUP(D107, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G107</f>
@@ -14650,33 +12979,12 @@
       <c r="Y107" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z107" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="1">
-        <v>0</v>
-      </c>
       <c r="AB107" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC107" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD107" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE107" s="1">
-        <v>0</v>
-      </c>
       <c r="AF107" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG107" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH107" s="1">
-        <v>0</v>
-      </c>
       <c r="AI107" s="1">
         <v>0.1</v>
       </c>
@@ -14688,8 +12996,8 @@
       </c>
     </row>
     <row r="108" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B108" s="1">
-        <v>104</v>
+      <c r="B108" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>145</v>
@@ -14698,7 +13006,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F108" s="1">
         <f>VLOOKUP(D108, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G108</f>
@@ -14771,32 +13079,14 @@
       <c r="Y108" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z108" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="1">
-        <v>0</v>
-      </c>
       <c r="AB108" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC108" s="1">
-        <v>0</v>
-      </c>
       <c r="AD108" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE108" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF108" s="1">
-        <v>0</v>
-      </c>
       <c r="AG108" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH108" s="1">
-        <v>0</v>
       </c>
       <c r="AI108" s="1">
         <v>0.05</v>
@@ -14806,8 +13096,8 @@
       </c>
     </row>
     <row r="109" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B109" s="1">
-        <v>105</v>
+      <c r="B109" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>146</v>
@@ -14816,7 +13106,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F109" s="1">
         <f>VLOOKUP(D109, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G109</f>
@@ -14889,32 +13179,14 @@
       <c r="Y109" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z109" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="1">
-        <v>0</v>
-      </c>
       <c r="AB109" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC109" s="1">
-        <v>0</v>
-      </c>
       <c r="AD109" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE109" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF109" s="1">
-        <v>0</v>
-      </c>
       <c r="AG109" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH109" s="1">
-        <v>0</v>
       </c>
       <c r="AI109" s="1">
         <v>0.05</v>
@@ -14927,8 +13199,8 @@
       </c>
     </row>
     <row r="110" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B110" s="1">
-        <v>106</v>
+      <c r="B110" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>147</v>
@@ -14937,7 +13209,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F110" s="1">
         <f>VLOOKUP(D110, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G110</f>
@@ -15010,32 +13282,14 @@
       <c r="Y110" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z110" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="1">
-        <v>0</v>
-      </c>
       <c r="AB110" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC110" s="1">
-        <v>0</v>
-      </c>
       <c r="AD110" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE110" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF110" s="1">
-        <v>0</v>
-      </c>
       <c r="AG110" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH110" s="1">
-        <v>0</v>
       </c>
       <c r="AI110" s="1">
         <v>0.05</v>
@@ -15048,8 +13302,8 @@
       </c>
     </row>
     <row r="111" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B111" s="1">
-        <v>107</v>
+      <c r="B111" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>148</v>
@@ -15058,7 +13312,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F111" s="1">
         <f>VLOOKUP(D111, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G111</f>
@@ -15131,32 +13385,14 @@
       <c r="Y111" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z111" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="1">
-        <v>0</v>
-      </c>
       <c r="AB111" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC111" s="1">
-        <v>0</v>
-      </c>
       <c r="AD111" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE111" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF111" s="1">
-        <v>0</v>
-      </c>
       <c r="AG111" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AH111" s="1">
-        <v>0</v>
       </c>
       <c r="AI111" s="1">
         <v>0.05</v>
@@ -15169,8 +13405,8 @@
       </c>
     </row>
     <row r="112" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B112" s="1">
-        <v>108</v>
+      <c r="B112" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>149</v>
@@ -15179,7 +13415,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F112" s="1">
         <f>VLOOKUP(D112, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G112</f>
@@ -15252,33 +13488,15 @@
       <c r="Y112" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="1">
-        <v>0</v>
-      </c>
       <c r="AB112" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC112" s="1">
-        <v>0</v>
-      </c>
       <c r="AD112" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE112" s="1">
-        <v>0</v>
-      </c>
       <c r="AF112" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH112" s="1">
-        <v>0</v>
-      </c>
       <c r="AI112" s="1">
         <v>0.15</v>
       </c>
@@ -15287,8 +13505,8 @@
       </c>
     </row>
     <row r="113" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B113" s="1">
-        <v>109</v>
+      <c r="B113" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>150</v>
@@ -15297,7 +13515,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F113" s="1">
         <f>VLOOKUP(D113, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G113</f>
@@ -15370,33 +13588,15 @@
       <c r="Y113" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z113" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="1">
-        <v>0</v>
-      </c>
       <c r="AB113" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC113" s="1">
-        <v>0</v>
-      </c>
       <c r="AD113" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE113" s="1">
-        <v>0</v>
-      </c>
       <c r="AF113" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG113" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH113" s="1">
-        <v>0</v>
-      </c>
       <c r="AI113" s="1">
         <v>0.15</v>
       </c>
@@ -15405,8 +13605,8 @@
       </c>
     </row>
     <row r="114" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B114" s="1">
-        <v>110</v>
+      <c r="B114" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>151</v>
@@ -15415,7 +13615,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F114" s="1">
         <f>VLOOKUP(D114, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G114</f>
@@ -15488,33 +13688,15 @@
       <c r="Y114" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z114" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="1">
-        <v>0</v>
-      </c>
       <c r="AB114" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC114" s="1">
-        <v>0</v>
-      </c>
       <c r="AD114" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE114" s="1">
-        <v>0</v>
-      </c>
       <c r="AF114" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG114" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH114" s="1">
-        <v>0</v>
-      </c>
       <c r="AI114" s="1">
         <v>0.2</v>
       </c>
@@ -15523,8 +13705,8 @@
       </c>
     </row>
     <row r="115" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B115" s="1">
-        <v>111</v>
+      <c r="B115" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>152</v>
@@ -15533,7 +13715,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F115" s="1">
         <f>VLOOKUP(D115, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G115</f>
@@ -15606,33 +13788,15 @@
       <c r="Y115" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z115" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="1">
-        <v>0</v>
-      </c>
       <c r="AB115" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC115" s="1">
-        <v>0</v>
-      </c>
       <c r="AD115" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE115" s="1">
-        <v>0</v>
-      </c>
       <c r="AF115" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG115" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH115" s="1">
-        <v>0</v>
-      </c>
       <c r="AI115" s="1">
         <v>0.2</v>
       </c>
@@ -15641,8 +13805,8 @@
       </c>
     </row>
     <row r="116" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B116" s="1">
-        <v>112</v>
+      <c r="B116" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>153</v>
@@ -15651,7 +13815,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F116" s="1">
         <f>VLOOKUP(D116, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G116</f>
@@ -15724,33 +13888,15 @@
       <c r="Y116" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z116" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA116" s="1">
-        <v>0</v>
-      </c>
       <c r="AB116" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC116" s="1">
-        <v>0</v>
-      </c>
       <c r="AD116" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE116" s="1">
-        <v>0</v>
-      </c>
       <c r="AF116" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG116" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH116" s="1">
-        <v>0</v>
-      </c>
       <c r="AI116" s="1">
         <v>0.25</v>
       </c>
@@ -15759,8 +13905,8 @@
       </c>
     </row>
     <row r="117" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B117" s="1">
-        <v>113</v>
+      <c r="B117" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>154</v>
@@ -15769,7 +13915,7 @@
         <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F117" s="1">
         <f>VLOOKUP(D117, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G117</f>
@@ -15842,33 +13988,15 @@
       <c r="Y117" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z117" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="1">
-        <v>0</v>
-      </c>
       <c r="AB117" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC117" s="1">
-        <v>0</v>
-      </c>
       <c r="AD117" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE117" s="1">
-        <v>0</v>
-      </c>
       <c r="AF117" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG117" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH117" s="1">
-        <v>0</v>
-      </c>
       <c r="AI117" s="1">
         <v>0.25</v>
       </c>
@@ -15877,8 +14005,8 @@
       </c>
     </row>
     <row r="118" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B118" s="1">
-        <v>114</v>
+      <c r="B118" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>155</v>
@@ -15887,7 +14015,7 @@
         <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F118" s="1">
         <f>VLOOKUP(D118, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G118</f>
@@ -15960,33 +14088,15 @@
       <c r="Y118" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z118" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="1">
-        <v>0</v>
-      </c>
       <c r="AB118" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC118" s="1">
-        <v>0</v>
-      </c>
       <c r="AD118" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE118" s="1">
-        <v>0</v>
-      </c>
       <c r="AF118" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG118" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH118" s="1">
-        <v>0</v>
-      </c>
       <c r="AI118" s="1">
         <v>0.25</v>
       </c>
@@ -15995,8 +14105,8 @@
       </c>
     </row>
     <row r="119" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B119" s="1">
-        <v>115</v>
+      <c r="B119" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>156</v>
@@ -16005,7 +14115,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F119" s="1">
         <f>VLOOKUP(D119, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G119</f>
@@ -16078,33 +14188,15 @@
       <c r="Y119" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA119" s="1">
-        <v>0</v>
-      </c>
       <c r="AB119" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC119" s="1">
-        <v>0</v>
-      </c>
       <c r="AD119" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE119" s="1">
-        <v>0</v>
-      </c>
       <c r="AF119" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH119" s="1">
-        <v>0</v>
-      </c>
       <c r="AI119" s="1">
         <v>0.3</v>
       </c>
@@ -16113,8 +14205,8 @@
       </c>
     </row>
     <row r="120" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B120" s="1">
-        <v>116</v>
+      <c r="B120" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>157</v>
@@ -16123,7 +14215,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F120" s="1">
         <f>VLOOKUP(D120, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G120</f>
@@ -16196,36 +14288,12 @@
       <c r="Y120" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z120" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA120" s="1">
-        <v>0</v>
-      </c>
       <c r="AB120" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC120" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD120" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE120" s="1">
-        <v>0</v>
-      </c>
       <c r="AF120" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG120" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH120" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI120" s="1">
-        <v>0</v>
-      </c>
       <c r="AK120" s="1" t="s">
         <v>288</v>
       </c>
@@ -16234,8 +14302,8 @@
       </c>
     </row>
     <row r="121" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B121" s="1">
-        <v>117</v>
+      <c r="B121" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>158</v>
@@ -16244,7 +14312,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F121" s="1">
         <f>VLOOKUP(D121, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G121</f>
@@ -16317,30 +14385,15 @@
       <c r="Y121" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z121" s="1">
-        <v>0</v>
-      </c>
       <c r="AA121" s="1">
         <v>0.3</v>
       </c>
       <c r="AB121" s="1">
         <v>0.15</v>
       </c>
-      <c r="AC121" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD121" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE121" s="1">
-        <v>0</v>
-      </c>
       <c r="AF121" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG121" s="1">
-        <v>0</v>
-      </c>
       <c r="AH121" s="1">
         <v>0.1</v>
       </c>
@@ -16355,8 +14408,8 @@
       </c>
     </row>
     <row r="122" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B122" s="1">
-        <v>118</v>
+      <c r="B122" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>159</v>
@@ -16365,7 +14418,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F122" s="1">
         <f>VLOOKUP(D122, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G122</f>
@@ -16438,33 +14491,12 @@
       <c r="Y122" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA122" s="1">
-        <v>0</v>
-      </c>
       <c r="AB122" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE122" s="1">
-        <v>0</v>
-      </c>
       <c r="AF122" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH122" s="1">
-        <v>0</v>
-      </c>
       <c r="AI122" s="1">
         <v>0.05</v>
       </c>
@@ -16476,8 +14508,8 @@
       </c>
     </row>
     <row r="123" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B123" s="1">
-        <v>119</v>
+      <c r="B123" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>160</v>
@@ -16486,7 +14518,7 @@
         <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F123" s="1">
         <f>VLOOKUP(D123, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G123</f>
@@ -16559,33 +14591,12 @@
       <c r="Y123" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z123" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA123" s="1">
-        <v>0</v>
-      </c>
       <c r="AB123" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC123" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD123" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE123" s="1">
-        <v>0</v>
-      </c>
       <c r="AF123" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG123" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH123" s="1">
-        <v>0</v>
-      </c>
       <c r="AI123" s="1">
         <v>0.1</v>
       </c>
@@ -16597,8 +14608,8 @@
       </c>
     </row>
     <row r="124" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B124" s="1">
-        <v>120</v>
+      <c r="B124" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>161</v>
@@ -16607,7 +14618,7 @@
         <v>7</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F124" s="1">
         <f>VLOOKUP(D124, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G124</f>
@@ -16680,33 +14691,12 @@
       <c r="Y124" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z124" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA124" s="1">
-        <v>0</v>
-      </c>
       <c r="AB124" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC124" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD124" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE124" s="1">
-        <v>0</v>
-      </c>
       <c r="AF124" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG124" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH124" s="1">
-        <v>0</v>
-      </c>
       <c r="AI124" s="1">
         <v>0.15</v>
       </c>
@@ -16718,8 +14708,8 @@
       </c>
     </row>
     <row r="125" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B125" s="1">
-        <v>121</v>
+      <c r="B125" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>162</v>
@@ -16728,7 +14718,7 @@
         <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F125" s="1">
         <f>VLOOKUP(D125, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G125</f>
@@ -16801,32 +14791,11 @@
       <c r="Y125" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z125" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="1">
-        <v>0</v>
-      </c>
       <c r="AB125" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC125" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD125" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE125" s="1">
-        <v>0</v>
-      </c>
       <c r="AF125" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG125" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH125" s="1">
-        <v>0</v>
       </c>
       <c r="AI125" s="1">
         <v>0.05</v>
@@ -16839,8 +14808,8 @@
       </c>
     </row>
     <row r="126" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B126" s="1">
-        <v>122</v>
+      <c r="B126" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>163</v>
@@ -16849,7 +14818,7 @@
         <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F126" s="1">
         <f>VLOOKUP(D126, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G126</f>
@@ -16922,32 +14891,11 @@
       <c r="Y126" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z126" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA126" s="1">
-        <v>0</v>
-      </c>
       <c r="AB126" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC126" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD126" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE126" s="1">
-        <v>0</v>
-      </c>
       <c r="AF126" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG126" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH126" s="1">
-        <v>0</v>
       </c>
       <c r="AI126" s="1">
         <v>0.15</v>
@@ -16960,8 +14908,8 @@
       </c>
     </row>
     <row r="127" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B127" s="1">
-        <v>123</v>
+      <c r="B127" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>164</v>
@@ -16970,7 +14918,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F127" s="1">
         <f>VLOOKUP(D127, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G127</f>
@@ -17043,32 +14991,11 @@
       <c r="Y127" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z127" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA127" s="1">
-        <v>0</v>
-      </c>
       <c r="AB127" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC127" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD127" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE127" s="1">
-        <v>0</v>
-      </c>
       <c r="AF127" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG127" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH127" s="1">
-        <v>0</v>
       </c>
       <c r="AI127" s="1">
         <v>0.2</v>
@@ -17078,8 +15005,8 @@
       </c>
     </row>
     <row r="128" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B128" s="1">
-        <v>124</v>
+      <c r="B128" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>165</v>
@@ -17088,7 +15015,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F128" s="1">
         <f>VLOOKUP(D128, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G128</f>
@@ -17161,32 +15088,11 @@
       <c r="Y128" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z128" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA128" s="1">
-        <v>0</v>
-      </c>
       <c r="AB128" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC128" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD128" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE128" s="1">
-        <v>0</v>
-      </c>
       <c r="AF128" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG128" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH128" s="1">
-        <v>0</v>
       </c>
       <c r="AI128" s="1">
         <v>0.2</v>
@@ -17199,8 +15105,8 @@
       </c>
     </row>
     <row r="129" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B129" s="1">
-        <v>125</v>
+      <c r="B129" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>166</v>
@@ -17209,7 +15115,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F129" s="1">
         <f>VLOOKUP(D129, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G129</f>
@@ -17279,39 +15185,9 @@
       <c r="X129" s="1">
         <v>0.9</v>
       </c>
-      <c r="Y129" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB129" s="1">
-        <v>0</v>
-      </c>
       <c r="AC129" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI129" s="1">
-        <v>0</v>
-      </c>
       <c r="AK129" s="1" t="s">
         <v>291</v>
       </c>
@@ -17320,8 +15196,8 @@
       </c>
     </row>
     <row r="130" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B130" s="1">
-        <v>126</v>
+      <c r="B130" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>167</v>
@@ -17330,7 +15206,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F130" s="1">
         <f>VLOOKUP(D130, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G130</f>
@@ -17403,32 +15279,11 @@
       <c r="Y130" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA130" s="1">
-        <v>0</v>
-      </c>
       <c r="AB130" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE130" s="1">
-        <v>0</v>
-      </c>
       <c r="AF130" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH130" s="1">
-        <v>0</v>
       </c>
       <c r="AI130" s="1">
         <v>0.05</v>
@@ -17441,8 +15296,8 @@
       </c>
     </row>
     <row r="131" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B131" s="1">
-        <v>127</v>
+      <c r="B131" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>168</v>
@@ -17451,7 +15306,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F131" s="1">
         <f>VLOOKUP(D131, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G131</f>
@@ -17524,32 +15379,11 @@
       <c r="Y131" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z131" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA131" s="1">
-        <v>0</v>
-      </c>
       <c r="AB131" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC131" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD131" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE131" s="1">
-        <v>0</v>
-      </c>
       <c r="AF131" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG131" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH131" s="1">
-        <v>0</v>
       </c>
       <c r="AI131" s="1">
         <v>0.05</v>
@@ -17562,8 +15396,8 @@
       </c>
     </row>
     <row r="132" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B132" s="1">
-        <v>128</v>
+      <c r="B132" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>169</v>
@@ -17572,7 +15406,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F132" s="1">
         <f>VLOOKUP(D132, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G132</f>
@@ -17645,32 +15479,11 @@
       <c r="Y132" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z132" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA132" s="1">
-        <v>0</v>
-      </c>
       <c r="AB132" s="1">
         <v>0.45</v>
       </c>
-      <c r="AC132" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD132" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE132" s="1">
-        <v>0</v>
-      </c>
       <c r="AF132" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG132" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH132" s="1">
-        <v>0</v>
       </c>
       <c r="AI132" s="1">
         <v>0.2</v>
@@ -17683,8 +15496,8 @@
       </c>
     </row>
     <row r="133" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B133" s="1">
-        <v>129</v>
+      <c r="B133" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>170</v>
@@ -17693,7 +15506,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F133" s="1">
         <f>VLOOKUP(D133, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G133</f>
@@ -17763,46 +15576,16 @@
       <c r="X133" s="1">
         <v>0.9</v>
       </c>
-      <c r="Y133" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z133" s="1">
-        <v>0</v>
-      </c>
       <c r="AA133" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI133" s="1">
-        <v>0</v>
-      </c>
       <c r="AK133" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="134" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B134" s="1">
-        <v>130</v>
+      <c r="B134" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>171</v>
@@ -17811,7 +15594,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F134" s="1">
         <f>VLOOKUP(D134, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G134</f>
@@ -17881,36 +15664,9 @@
       <c r="X134" s="1">
         <v>0.9</v>
       </c>
-      <c r="Y134" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z134" s="1">
-        <v>0</v>
-      </c>
       <c r="AA134" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB134" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC134" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD134" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE134" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF134" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG134" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH134" s="1">
-        <v>0</v>
-      </c>
       <c r="AI134" s="1">
         <v>0.05</v>
       </c>
@@ -17919,8 +15675,8 @@
       </c>
     </row>
     <row r="135" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B135" s="1">
-        <v>131</v>
+      <c r="B135" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>172</v>
@@ -17929,7 +15685,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F135" s="1">
         <f>VLOOKUP(D135, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G135</f>
@@ -17999,36 +15755,9 @@
       <c r="X135" s="1">
         <v>1</v>
       </c>
-      <c r="Y135" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z135" s="1">
-        <v>0</v>
-      </c>
       <c r="AA135" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH135" s="1">
-        <v>0</v>
-      </c>
       <c r="AI135" s="1">
         <v>0.05</v>
       </c>
@@ -18040,8 +15769,8 @@
       </c>
     </row>
     <row r="136" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B136" s="1">
-        <v>132</v>
+      <c r="B136" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>173</v>
@@ -18050,7 +15779,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F136" s="1">
         <f>VLOOKUP(D136, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G136</f>
@@ -18120,36 +15849,9 @@
       <c r="X136" s="1">
         <v>1</v>
       </c>
-      <c r="Y136" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z136" s="1">
-        <v>0</v>
-      </c>
       <c r="AA136" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH136" s="1">
-        <v>0</v>
-      </c>
       <c r="AI136" s="1">
         <v>0.05</v>
       </c>
@@ -18161,8 +15863,8 @@
       </c>
     </row>
     <row r="137" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B137" s="1">
-        <v>133</v>
+      <c r="B137" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>174</v>
@@ -18171,7 +15873,7 @@
         <v>6</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F137" s="1">
         <f>VLOOKUP(D137, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G137</f>
@@ -18241,36 +15943,9 @@
       <c r="X137" s="1">
         <v>2</v>
       </c>
-      <c r="Y137" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z137" s="1">
-        <v>0</v>
-      </c>
       <c r="AA137" s="1">
         <v>0.8</v>
       </c>
-      <c r="AB137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH137" s="1">
-        <v>0</v>
-      </c>
       <c r="AI137" s="1">
         <v>0.05</v>
       </c>
@@ -18279,8 +15954,8 @@
       </c>
     </row>
     <row r="138" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B138" s="1">
-        <v>134</v>
+      <c r="B138" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>175</v>
@@ -18289,7 +15964,7 @@
         <v>7</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F138" s="1">
         <f>VLOOKUP(D138, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G138</f>
@@ -18362,33 +16037,15 @@
       <c r="Y138" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z138" s="1">
-        <v>0</v>
-      </c>
       <c r="AA138" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB138" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC138" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD138" s="1">
-        <v>0</v>
-      </c>
       <c r="AE138" s="1">
         <v>0.35</v>
       </c>
       <c r="AF138" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG138" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH138" s="1">
-        <v>0</v>
-      </c>
       <c r="AI138" s="1">
         <v>0.05</v>
       </c>
@@ -18400,8 +16057,8 @@
       </c>
     </row>
     <row r="139" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B139" s="1">
-        <v>135</v>
+      <c r="B139" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>176</v>
@@ -18410,7 +16067,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F139" s="1">
         <f>VLOOKUP(D139, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G139</f>
@@ -18483,35 +16140,14 @@
       <c r="Y139" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z139" s="1">
-        <v>0</v>
-      </c>
       <c r="AA139" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB139" s="1">
-        <v>0</v>
-      </c>
       <c r="AC139" s="1">
         <v>0.25</v>
       </c>
-      <c r="AD139" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE139" s="1">
-        <v>0</v>
-      </c>
       <c r="AF139" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG139" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH139" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI139" s="1">
-        <v>0</v>
       </c>
       <c r="AK139" s="1" t="s">
         <v>293</v>
@@ -18521,8 +16157,8 @@
       </c>
     </row>
     <row r="140" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B140" s="1">
-        <v>136</v>
+      <c r="B140" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>177</v>
@@ -18531,7 +16167,7 @@
         <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F140" s="1">
         <f>VLOOKUP(D140, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G140</f>
@@ -18604,32 +16240,14 @@
       <c r="Y140" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z140" s="1">
-        <v>0</v>
-      </c>
       <c r="AA140" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB140" s="1">
-        <v>0</v>
-      </c>
       <c r="AC140" s="1">
         <v>0.25</v>
       </c>
-      <c r="AD140" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE140" s="1">
-        <v>0</v>
-      </c>
       <c r="AF140" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG140" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH140" s="1">
-        <v>0</v>
       </c>
       <c r="AI140" s="1">
         <v>0.1</v>
@@ -18642,8 +16260,8 @@
       </c>
     </row>
     <row r="141" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B141" s="1">
-        <v>137</v>
+      <c r="B141" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>178</v>
@@ -18652,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F141" s="1">
         <f>VLOOKUP(D141, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G141</f>
@@ -18725,32 +16343,11 @@
       <c r="Y141" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z141" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA141" s="1">
-        <v>0</v>
-      </c>
       <c r="AB141" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC141" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD141" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE141" s="1">
-        <v>0</v>
-      </c>
       <c r="AF141" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG141" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH141" s="1">
-        <v>0</v>
       </c>
       <c r="AI141" s="1">
         <v>0.05</v>
@@ -18760,8 +16357,8 @@
       </c>
     </row>
     <row r="142" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B142" s="1">
-        <v>138</v>
+      <c r="B142" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>179</v>
@@ -18770,7 +16367,7 @@
         <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F142" s="1">
         <f>VLOOKUP(D142, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G142</f>
@@ -18843,32 +16440,11 @@
       <c r="Y142" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z142" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA142" s="1">
-        <v>0</v>
-      </c>
       <c r="AB142" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC142" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD142" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE142" s="1">
-        <v>0</v>
-      </c>
       <c r="AF142" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG142" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH142" s="1">
-        <v>0</v>
       </c>
       <c r="AI142" s="1">
         <v>0.1</v>
@@ -18881,8 +16457,8 @@
       </c>
     </row>
     <row r="143" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B143" s="1">
-        <v>139</v>
+      <c r="B143" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>180</v>
@@ -18891,7 +16467,7 @@
         <v>3</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F143" s="1">
         <f>VLOOKUP(D143, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G143</f>
@@ -18964,32 +16540,11 @@
       <c r="Y143" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z143" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA143" s="1">
-        <v>0</v>
-      </c>
       <c r="AB143" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC143" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD143" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE143" s="1">
-        <v>0</v>
-      </c>
       <c r="AF143" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG143" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH143" s="1">
-        <v>0</v>
       </c>
       <c r="AI143" s="1">
         <v>0.15</v>
@@ -19002,8 +16557,8 @@
       </c>
     </row>
     <row r="144" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B144" s="1">
-        <v>140</v>
+      <c r="B144" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>181</v>
@@ -19012,7 +16567,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F144" s="1">
         <f>VLOOKUP(D144, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G144</f>
@@ -19085,32 +16640,11 @@
       <c r="Y144" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="1">
-        <v>0</v>
-      </c>
       <c r="AB144" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE144" s="1">
-        <v>0</v>
-      </c>
       <c r="AF144" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH144" s="1">
-        <v>0</v>
       </c>
       <c r="AI144" s="1">
         <v>0.1</v>
@@ -19123,8 +16657,8 @@
       </c>
     </row>
     <row r="145" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B145" s="1">
-        <v>141</v>
+      <c r="B145" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>182</v>
@@ -19133,7 +16667,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F145" s="1">
         <f>VLOOKUP(D145, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G145</f>
@@ -19206,35 +16740,14 @@
       <c r="Y145" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z145" s="1">
-        <v>0</v>
-      </c>
       <c r="AA145" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF145" s="1">
-        <v>0</v>
-      </c>
       <c r="AG145" s="1">
         <v>0.1</v>
       </c>
       <c r="AH145" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AI145" s="1">
-        <v>0</v>
       </c>
       <c r="AK145" s="1" t="s">
         <v>259</v>
@@ -19256,8 +16769,8 @@
       </c>
     </row>
     <row r="146" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B146" s="1">
-        <v>142</v>
+      <c r="B146" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>183</v>
@@ -19266,7 +16779,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F146" s="1">
         <f>VLOOKUP(D146, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G146</f>
@@ -19339,32 +16852,11 @@
       <c r="Y146" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z146" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA146" s="1">
-        <v>0</v>
-      </c>
       <c r="AB146" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AC146" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD146" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE146" s="1">
-        <v>0</v>
-      </c>
       <c r="AF146" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG146" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH146" s="1">
-        <v>0</v>
       </c>
       <c r="AI146" s="1">
         <v>0.3</v>
@@ -19389,8 +16881,8 @@
       </c>
     </row>
     <row r="147" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B147" s="1">
-        <v>143</v>
+      <c r="B147" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>184</v>
@@ -19399,7 +16891,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F147" s="1">
         <f>VLOOKUP(D147, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G147</f>
@@ -19472,33 +16964,15 @@
       <c r="Y147" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z147" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA147" s="1">
-        <v>0</v>
-      </c>
       <c r="AB147" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC147" s="1">
-        <v>0</v>
-      </c>
       <c r="AD147" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE147" s="1">
-        <v>0</v>
-      </c>
       <c r="AF147" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG147" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH147" s="1">
-        <v>0</v>
-      </c>
       <c r="AI147" s="1">
         <v>0.3</v>
       </c>
@@ -19531,8 +17005,8 @@
       </c>
     </row>
     <row r="148" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B148" s="1">
-        <v>144</v>
+      <c r="B148" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>185</v>
@@ -19541,7 +17015,7 @@
         <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F148" s="1">
         <f>VLOOKUP(D148, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G148</f>
@@ -19614,33 +17088,15 @@
       <c r="Y148" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z148" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA148" s="1">
-        <v>0</v>
-      </c>
       <c r="AB148" s="1">
         <v>0.05</v>
       </c>
-      <c r="AC148" s="1">
-        <v>0</v>
-      </c>
       <c r="AD148" s="1">
         <v>0.3</v>
       </c>
-      <c r="AE148" s="1">
-        <v>0</v>
-      </c>
       <c r="AF148" s="1">
         <v>0.15</v>
       </c>
-      <c r="AG148" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH148" s="1">
-        <v>0</v>
-      </c>
       <c r="AI148" s="1">
         <v>0.3</v>
       </c>
@@ -19661,8 +17117,8 @@
       </c>
     </row>
     <row r="149" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B149" s="1">
-        <v>145</v>
+      <c r="B149" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>186</v>
@@ -19671,7 +17127,7 @@
         <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F149" s="1">
         <f>VLOOKUP(D149, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G149</f>
@@ -19744,32 +17200,11 @@
       <c r="Y149" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA149" s="1">
-        <v>0</v>
-      </c>
       <c r="AB149" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE149" s="1">
-        <v>0</v>
-      </c>
       <c r="AF149" s="1">
         <v>0.1</v>
-      </c>
-      <c r="AG149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH149" s="1">
-        <v>0</v>
       </c>
       <c r="AI149" s="1">
         <v>0.35</v>
@@ -19801,7 +17236,7 @@
     <mergeCell ref="AK1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A5:H34 Y5:XFD34 I5:X149 H6:H149 B7:B149 F35:H149">
+  <conditionalFormatting sqref="A5:H34 Y5:XFD34 I5:X149 H6:H149 F35:H149 A5:A149 B6:B149">
     <cfRule type="expression" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>

--- a/design/MiniTemplate/Excels/#role.xlsx
+++ b/design/MiniTemplate/Excels/#role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55AD3FA-B7CF-4B58-AEE2-BDBEB38CF841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3563CC-47BC-41A4-8F74-89DFC0480BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ralations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list,string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1478,6 +1474,10 @@
   </si>
   <si>
     <t>h145</t>
+  </si>
+  <si>
+    <t>relations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2370,9 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2404,61 +2404,61 @@
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
@@ -2487,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -2496,43 +2496,43 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
@@ -2545,7 +2545,7 @@
       <c r="AH2" s="14"/>
       <c r="AI2" s="15"/>
       <c r="AK2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL2" s="14"/>
       <c r="AM2" s="14"/>
@@ -2558,40 +2558,40 @@
     </row>
     <row r="3" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AK3" s="5">
         <v>1</v>
@@ -2641,58 +2641,58 @@
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>10</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(D5, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G5</f>
@@ -2810,21 +2810,21 @@
         <v>1</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(D6, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G6</f>
@@ -2901,21 +2901,21 @@
         <v>0.5</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(D7, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G7</f>
@@ -2992,21 +2992,21 @@
         <v>0.5</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(D8, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G8</f>
@@ -3083,21 +3083,21 @@
         <v>0.6</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(D9, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G9</f>
@@ -3177,21 +3177,21 @@
         <v>0.1</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(D10, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G10</f>
@@ -3274,24 +3274,24 @@
         <v>0.1</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(D11, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G11</f>
@@ -3374,24 +3374,24 @@
         <v>0.1</v>
       </c>
       <c r="AK11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL11" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(D12, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G12</f>
@@ -3477,24 +3477,24 @@
         <v>0.1</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(D13, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G13</f>
@@ -3583,24 +3583,24 @@
         <v>0.1</v>
       </c>
       <c r="AK13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(D14, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G14</f>
@@ -3686,24 +3686,24 @@
         <v>0.1</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F15" s="1">
         <f>VLOOKUP(D15, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G15</f>
@@ -3789,24 +3789,24 @@
         <v>0.2</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F16" s="1">
         <f>VLOOKUP(D16, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G16</f>
@@ -3892,24 +3892,24 @@
         <v>0.1</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F17" s="1">
         <f>VLOOKUP(D17, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G17</f>
@@ -3989,21 +3989,21 @@
         <v>0.1</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F18" s="1">
         <f>VLOOKUP(D18, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G18</f>
@@ -4083,21 +4083,21 @@
         <v>0.1</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP(D19, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G19</f>
@@ -4177,21 +4177,21 @@
         <v>0.1</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20" s="1">
         <f>VLOOKUP(D20, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G20</f>
@@ -4274,24 +4274,24 @@
         <v>0.1</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F21" s="1">
         <f>VLOOKUP(D21, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G21</f>
@@ -4374,24 +4374,24 @@
         <v>0.1</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F22" s="1">
         <f>VLOOKUP(D22, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G22</f>
@@ -4471,24 +4471,24 @@
         <v>0.1</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F23" s="1">
         <f>VLOOKUP(D23, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G23</f>
@@ -4568,24 +4568,24 @@
         <v>0.1</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F24" s="1">
         <f>VLOOKUP(D24, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G24</f>
@@ -4665,21 +4665,21 @@
         <v>0.1</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F25" s="1">
         <f>VLOOKUP(D25, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G25</f>
@@ -4759,24 +4759,24 @@
         <v>0.1</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F26" s="1">
         <f>VLOOKUP(D26, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G26</f>
@@ -4856,21 +4856,21 @@
         <v>0.1</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP(D27, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G27</f>
@@ -4950,24 +4950,24 @@
         <v>0.1</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F28" s="1">
         <f>VLOOKUP(D28, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G28</f>
@@ -5050,24 +5050,24 @@
         <v>0.1</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F29" s="1">
         <f>VLOOKUP(D29, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G29</f>
@@ -5150,24 +5150,24 @@
         <v>0.1</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F30" s="1">
         <f>VLOOKUP(D30, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G30</f>
@@ -5250,24 +5250,24 @@
         <v>0.1</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F31" s="1">
         <f>VLOOKUP(D31, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G31</f>
@@ -5350,24 +5350,24 @@
         <v>0.2</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F32" s="1">
         <f>VLOOKUP(D32, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G32</f>
@@ -5447,21 +5447,21 @@
         <v>0.15</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F33" s="1">
         <f>VLOOKUP(D33, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G33</f>
@@ -5541,24 +5541,24 @@
         <v>0.15</v>
       </c>
       <c r="AK33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL33" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F34" s="1">
         <f>VLOOKUP(D34, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G34</f>
@@ -5638,24 +5638,24 @@
         <v>0.2</v>
       </c>
       <c r="AK34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL34" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F35" s="1">
         <f>VLOOKUP(D35, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G35</f>
@@ -5735,24 +5735,24 @@
         <v>0.2</v>
       </c>
       <c r="AK35" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL35" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F36" s="1">
         <f>VLOOKUP(D36, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G36</f>
@@ -5835,24 +5835,24 @@
         <v>0.15</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F37" s="1">
         <f>VLOOKUP(D37, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G37</f>
@@ -5935,24 +5935,24 @@
         <v>0.2</v>
       </c>
       <c r="AK37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL37" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F38" s="1">
         <f>VLOOKUP(D38, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G38</f>
@@ -6038,24 +6038,24 @@
         <v>0.1</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F39" s="1">
         <f>VLOOKUP(D39, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G39</f>
@@ -6138,24 +6138,24 @@
         <v>0.2</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F40" s="1">
         <f>VLOOKUP(D40, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G40</f>
@@ -6238,21 +6238,21 @@
         <v>0.1</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F41" s="1">
         <f>VLOOKUP(D41, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G41</f>
@@ -6335,21 +6335,21 @@
         <v>0.1</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F42" s="1">
         <f>VLOOKUP(D42, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G42</f>
@@ -6432,21 +6432,21 @@
         <v>0.1</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP(D43, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G43</f>
@@ -6532,24 +6532,24 @@
         <v>0.05</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F44" s="1">
         <f>VLOOKUP(D44, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G44</f>
@@ -6635,24 +6635,24 @@
         <v>0.1</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1">
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F45" s="1">
         <f>VLOOKUP(D45, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G45</f>
@@ -6741,24 +6741,24 @@
         <v>0.1</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1">
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F46" s="1">
         <f>VLOOKUP(D46, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G46</f>
@@ -6847,24 +6847,24 @@
         <v>0.1</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F47" s="1">
         <f>VLOOKUP(D47, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G47</f>
@@ -6950,24 +6950,24 @@
         <v>0.1</v>
       </c>
       <c r="AK47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL47" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="AL47" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1">
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F48" s="1">
         <f>VLOOKUP(D48, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G48</f>
@@ -7056,24 +7056,24 @@
         <v>0.1</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F49" s="1">
         <f>VLOOKUP(D49, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G49</f>
@@ -7156,21 +7156,21 @@
         <v>0.1</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP(D50, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G50</f>
@@ -7253,24 +7253,24 @@
         <v>0.2</v>
       </c>
       <c r="AK50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL50" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AL50" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F51" s="1">
         <f>VLOOKUP(D51, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G51</f>
@@ -7353,24 +7353,24 @@
         <v>0.2</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F52" s="1">
         <f>VLOOKUP(D52, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G52</f>
@@ -7456,24 +7456,24 @@
         <v>0.2</v>
       </c>
       <c r="AK52" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1">
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F53" s="1">
         <f>VLOOKUP(D53, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G53</f>
@@ -7559,21 +7559,21 @@
         <v>0.1</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1">
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F54" s="1">
         <f>VLOOKUP(D54, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G54</f>
@@ -7659,24 +7659,24 @@
         <v>0.2</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL54" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F55" s="1">
         <f>VLOOKUP(D55, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G55</f>
@@ -7762,24 +7762,24 @@
         <v>0.2</v>
       </c>
       <c r="AK55" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL55" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="AL55" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F56" s="1">
         <f>VLOOKUP(D56, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G56</f>
@@ -7865,24 +7865,24 @@
         <v>0.2</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL56" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP(D57, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G57</f>
@@ -7962,24 +7962,24 @@
         <v>0.1</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP(D58, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G58</f>
@@ -8062,24 +8062,24 @@
         <v>0.1</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP(D59, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G59</f>
@@ -8162,21 +8162,21 @@
         <v>0.1</v>
       </c>
       <c r="AK59" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP(D60, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G60</f>
@@ -8259,24 +8259,24 @@
         <v>0.1</v>
       </c>
       <c r="AK60" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP(D61, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G61</f>
@@ -8359,24 +8359,24 @@
         <v>0.1</v>
       </c>
       <c r="AK61" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP(D62, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G62</f>
@@ -8462,24 +8462,24 @@
         <v>0.1</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1">
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP(D63, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G63</f>
@@ -8568,24 +8568,24 @@
         <v>0.1</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1">
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP(D64, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G64</f>
@@ -8671,24 +8671,24 @@
         <v>0.1</v>
       </c>
       <c r="AK64" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP(D65, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G65</f>
@@ -8771,24 +8771,24 @@
         <v>0.2</v>
       </c>
       <c r="AK65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL65" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="AL65" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F66" s="1">
         <f>VLOOKUP(D66, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G66</f>
@@ -8874,21 +8874,21 @@
         <v>0.1</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" s="1">
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F67" s="1">
         <f>VLOOKUP(D67, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G67</f>
@@ -8971,24 +8971,24 @@
         <v>0.1</v>
       </c>
       <c r="AK67" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL67" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AL67" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F68" s="1">
         <f>VLOOKUP(D68, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G68</f>
@@ -9077,24 +9077,24 @@
         <v>0.15</v>
       </c>
       <c r="AK68" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL68" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1">
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F69" s="1">
         <f>VLOOKUP(D69, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G69</f>
@@ -9183,24 +9183,24 @@
         <v>0.15</v>
       </c>
       <c r="AK69" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="1">
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F70" s="1">
         <f>VLOOKUP(D70, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G70</f>
@@ -9286,24 +9286,24 @@
         <v>0.1</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL70" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP(D71, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G71</f>
@@ -9392,24 +9392,24 @@
         <v>0.15</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1">
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F72" s="1">
         <f>VLOOKUP(D72, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G72</f>
@@ -9498,24 +9498,24 @@
         <v>0.1</v>
       </c>
       <c r="AK72" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP(D73, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G73</f>
@@ -9598,24 +9598,24 @@
         <v>0.1</v>
       </c>
       <c r="AK73" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL73" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1">
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP(D74, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G74</f>
@@ -9698,24 +9698,24 @@
         <v>0.1</v>
       </c>
       <c r="AK74" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL74" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1">
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP(D75, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G75</f>
@@ -9801,24 +9801,24 @@
         <v>0.1</v>
       </c>
       <c r="AK75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL75" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="AL75" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F76" s="1">
         <f>VLOOKUP(D76, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G76</f>
@@ -9901,24 +9901,24 @@
         <v>0.1</v>
       </c>
       <c r="AK76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL76" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="AL76" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F77" s="1">
         <f>VLOOKUP(D77, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G77</f>
@@ -10001,21 +10001,21 @@
         <v>0.1</v>
       </c>
       <c r="AK77" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1">
         <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F78" s="1">
         <f>VLOOKUP(D78, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G78</f>
@@ -10098,24 +10098,24 @@
         <v>0.1</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F79" s="1">
         <f>VLOOKUP(D79, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G79</f>
@@ -10198,24 +10198,24 @@
         <v>0.1</v>
       </c>
       <c r="AK79" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1">
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F80" s="1">
         <f>VLOOKUP(D80, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G80</f>
@@ -10298,24 +10298,24 @@
         <v>0.1</v>
       </c>
       <c r="AK80" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1">
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F81" s="1">
         <f>VLOOKUP(D81, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G81</f>
@@ -10398,24 +10398,24 @@
         <v>0.1</v>
       </c>
       <c r="AK81" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL81" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1">
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F82" s="1">
         <f>VLOOKUP(D82, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G82</f>
@@ -10498,24 +10498,24 @@
         <v>0.2</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83" s="1">
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F83" s="1">
         <f>VLOOKUP(D83, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G83</f>
@@ -10598,24 +10598,24 @@
         <v>0.2</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D84" s="1">
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F84" s="1">
         <f>VLOOKUP(D84, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G84</f>
@@ -10698,24 +10698,24 @@
         <v>0.2</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1">
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F85" s="1">
         <f>VLOOKUP(D85, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G85</f>
@@ -10798,24 +10798,24 @@
         <v>0.2</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F86" s="1">
         <f>VLOOKUP(D86, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G86</f>
@@ -10898,24 +10898,24 @@
         <v>0.1</v>
       </c>
       <c r="AK86" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F87" s="1">
         <f>VLOOKUP(D87, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G87</f>
@@ -10998,24 +10998,24 @@
         <v>0.15</v>
       </c>
       <c r="AK87" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1">
         <v>4</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F88" s="1">
         <f>VLOOKUP(D88, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G88</f>
@@ -11098,24 +11098,24 @@
         <v>0.15</v>
       </c>
       <c r="AK88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL88" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="AL88" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F89" s="1">
         <f>VLOOKUP(D89, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G89</f>
@@ -11198,24 +11198,24 @@
         <v>0.2</v>
       </c>
       <c r="AK89" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1">
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F90" s="1">
         <f>VLOOKUP(D90, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G90</f>
@@ -11298,24 +11298,24 @@
         <v>0.2</v>
       </c>
       <c r="AK90" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL90" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="AL90" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D91" s="1">
         <v>7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F91" s="1">
         <f>VLOOKUP(D91, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G91</f>
@@ -11398,24 +11398,24 @@
         <v>0.25</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D92" s="1">
         <v>4</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F92" s="1">
         <f>VLOOKUP(D92, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G92</f>
@@ -11498,21 +11498,21 @@
         <v>0.05</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D93" s="1">
         <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP(D93, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G93</f>
@@ -11595,24 +11595,24 @@
         <v>0.05</v>
       </c>
       <c r="AK93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL93" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="AL93" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F94" s="1">
         <f>VLOOKUP(D94, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G94</f>
@@ -11692,24 +11692,24 @@
         <v>0.1</v>
       </c>
       <c r="AK94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL94" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="AL94" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F95" s="1">
         <f>VLOOKUP(D95, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G95</f>
@@ -11792,24 +11792,24 @@
         <v>0.15</v>
       </c>
       <c r="AK95" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="1">
         <v>4</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F96" s="1">
         <f>VLOOKUP(D96, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G96</f>
@@ -11889,24 +11889,24 @@
         <v>0.1</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D97" s="1">
         <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F97" s="1">
         <f>VLOOKUP(D97, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G97</f>
@@ -11989,21 +11989,21 @@
         <v>0.1</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F98" s="1">
         <f>VLOOKUP(D98, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G98</f>
@@ -12086,24 +12086,24 @@
         <v>0.1</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AL98" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D99" s="1">
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F99" s="1">
         <f>VLOOKUP(D99, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G99</f>
@@ -12186,24 +12186,24 @@
         <v>0.15</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D100" s="1">
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F100" s="1">
         <f>VLOOKUP(D100, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G100</f>
@@ -12286,21 +12286,21 @@
         <v>0.05</v>
       </c>
       <c r="AK100" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F101" s="1">
         <f>VLOOKUP(D101, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G101</f>
@@ -12383,24 +12383,24 @@
         <v>0.05</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" s="1">
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F102" s="1">
         <f>VLOOKUP(D102, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G102</f>
@@ -12483,24 +12483,24 @@
         <v>0.05</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" s="1">
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F103" s="1">
         <f>VLOOKUP(D103, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G103</f>
@@ -12583,24 +12583,24 @@
         <v>0.05</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D104" s="1">
         <v>6</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F104" s="1">
         <f>VLOOKUP(D104, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G104</f>
@@ -12683,24 +12683,24 @@
         <v>0.05</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F105" s="1">
         <f>VLOOKUP(D105, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G105</f>
@@ -12783,24 +12783,24 @@
         <v>0.1</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL105" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D106" s="1">
         <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F106" s="1">
         <f>VLOOKUP(D106, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G106</f>
@@ -12889,24 +12889,24 @@
         <v>0.2</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D107" s="1">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F107" s="1">
         <f>VLOOKUP(D107, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G107</f>
@@ -12989,24 +12989,24 @@
         <v>0.1</v>
       </c>
       <c r="AK107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL107" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="AL107" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="108" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D108" s="1">
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F108" s="1">
         <f>VLOOKUP(D108, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G108</f>
@@ -13092,21 +13092,21 @@
         <v>0.05</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F109" s="1">
         <f>VLOOKUP(D109, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G109</f>
@@ -13192,24 +13192,24 @@
         <v>0.05</v>
       </c>
       <c r="AK109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL109" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AL109" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D110" s="1">
         <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F110" s="1">
         <f>VLOOKUP(D110, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G110</f>
@@ -13295,24 +13295,24 @@
         <v>0.05</v>
       </c>
       <c r="AK110" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL110" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AL110" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="111" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F111" s="1">
         <f>VLOOKUP(D111, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G111</f>
@@ -13398,24 +13398,24 @@
         <v>0.05</v>
       </c>
       <c r="AK111" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D112" s="1">
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F112" s="1">
         <f>VLOOKUP(D112, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G112</f>
@@ -13501,21 +13501,21 @@
         <v>0.15</v>
       </c>
       <c r="AK112" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F113" s="1">
         <f>VLOOKUP(D113, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G113</f>
@@ -13601,21 +13601,21 @@
         <v>0.15</v>
       </c>
       <c r="AK113" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" s="1">
         <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F114" s="1">
         <f>VLOOKUP(D114, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G114</f>
@@ -13701,21 +13701,21 @@
         <v>0.2</v>
       </c>
       <c r="AK114" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D115" s="1">
         <v>5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F115" s="1">
         <f>VLOOKUP(D115, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G115</f>
@@ -13801,21 +13801,21 @@
         <v>0.2</v>
       </c>
       <c r="AK115" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D116" s="1">
         <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F116" s="1">
         <f>VLOOKUP(D116, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G116</f>
@@ -13901,21 +13901,21 @@
         <v>0.25</v>
       </c>
       <c r="AK116" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D117" s="1">
         <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F117" s="1">
         <f>VLOOKUP(D117, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G117</f>
@@ -14001,21 +14001,21 @@
         <v>0.25</v>
       </c>
       <c r="AK117" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D118" s="1">
         <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F118" s="1">
         <f>VLOOKUP(D118, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G118</f>
@@ -14101,21 +14101,21 @@
         <v>0.25</v>
       </c>
       <c r="AK118" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D119" s="1">
         <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F119" s="1">
         <f>VLOOKUP(D119, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G119</f>
@@ -14201,21 +14201,21 @@
         <v>0.3</v>
       </c>
       <c r="AK119" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D120" s="1">
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F120" s="1">
         <f>VLOOKUP(D120, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G120</f>
@@ -14295,24 +14295,24 @@
         <v>0.15</v>
       </c>
       <c r="AK120" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D121" s="1">
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F121" s="1">
         <f>VLOOKUP(D121, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G121</f>
@@ -14401,24 +14401,24 @@
         <v>0.05</v>
       </c>
       <c r="AK121" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL121" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D122" s="1">
         <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F122" s="1">
         <f>VLOOKUP(D122, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G122</f>
@@ -14501,24 +14501,24 @@
         <v>0.05</v>
       </c>
       <c r="AK122" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D123" s="1">
         <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F123" s="1">
         <f>VLOOKUP(D123, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G123</f>
@@ -14601,24 +14601,24 @@
         <v>0.1</v>
       </c>
       <c r="AK123" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D124" s="1">
         <v>7</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F124" s="1">
         <f>VLOOKUP(D124, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G124</f>
@@ -14701,24 +14701,24 @@
         <v>0.15</v>
       </c>
       <c r="AK124" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F125" s="1">
         <f>VLOOKUP(D125, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G125</f>
@@ -14801,24 +14801,24 @@
         <v>0.05</v>
       </c>
       <c r="AK125" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D126" s="1">
         <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F126" s="1">
         <f>VLOOKUP(D126, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G126</f>
@@ -14901,24 +14901,24 @@
         <v>0.15</v>
       </c>
       <c r="AK126" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D127" s="1">
         <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F127" s="1">
         <f>VLOOKUP(D127, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G127</f>
@@ -15001,21 +15001,21 @@
         <v>0.2</v>
       </c>
       <c r="AK127" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D128" s="1">
         <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F128" s="1">
         <f>VLOOKUP(D128, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G128</f>
@@ -15098,24 +15098,24 @@
         <v>0.2</v>
       </c>
       <c r="AK128" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL128" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="AL128" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="129" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D129" s="1">
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F129" s="1">
         <f>VLOOKUP(D129, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G129</f>
@@ -15189,24 +15189,24 @@
         <v>0.9</v>
       </c>
       <c r="AK129" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL129" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="AL129" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="130" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D130" s="1">
         <v>3</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F130" s="1">
         <f>VLOOKUP(D130, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G130</f>
@@ -15289,24 +15289,24 @@
         <v>0.05</v>
       </c>
       <c r="AK130" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL130" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="AL130" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="131" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D131" s="1">
         <v>4</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F131" s="1">
         <f>VLOOKUP(D131, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G131</f>
@@ -15389,24 +15389,24 @@
         <v>0.05</v>
       </c>
       <c r="AK131" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL131" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="AL131" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="132" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F132" s="1">
         <f>VLOOKUP(D132, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G132</f>
@@ -15489,24 +15489,24 @@
         <v>0.2</v>
       </c>
       <c r="AK132" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F133" s="1">
         <f>VLOOKUP(D133, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G133</f>
@@ -15580,21 +15580,21 @@
         <v>0.5</v>
       </c>
       <c r="AK133" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F134" s="1">
         <f>VLOOKUP(D134, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G134</f>
@@ -15671,21 +15671,21 @@
         <v>0.05</v>
       </c>
       <c r="AK134" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D135" s="1">
         <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F135" s="1">
         <f>VLOOKUP(D135, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G135</f>
@@ -15762,24 +15762,24 @@
         <v>0.05</v>
       </c>
       <c r="AK135" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL135" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F136" s="1">
         <f>VLOOKUP(D136, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G136</f>
@@ -15856,24 +15856,24 @@
         <v>0.05</v>
       </c>
       <c r="AK136" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D137" s="1">
         <v>6</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F137" s="1">
         <f>VLOOKUP(D137, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G137</f>
@@ -15950,21 +15950,21 @@
         <v>0.05</v>
       </c>
       <c r="AK137" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D138" s="1">
         <v>7</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F138" s="1">
         <f>VLOOKUP(D138, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G138</f>
@@ -16050,24 +16050,24 @@
         <v>0.05</v>
       </c>
       <c r="AK138" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL138" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F139" s="1">
         <f>VLOOKUP(D139, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G139</f>
@@ -16150,24 +16150,24 @@
         <v>0.1</v>
       </c>
       <c r="AK139" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D140" s="1">
         <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F140" s="1">
         <f>VLOOKUP(D140, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G140</f>
@@ -16253,24 +16253,24 @@
         <v>0.1</v>
       </c>
       <c r="AK140" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F141" s="1">
         <f>VLOOKUP(D141, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G141</f>
@@ -16353,21 +16353,21 @@
         <v>0.05</v>
       </c>
       <c r="AK141" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F142" s="1">
         <f>VLOOKUP(D142, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G142</f>
@@ -16450,24 +16450,24 @@
         <v>0.1</v>
       </c>
       <c r="AK142" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D143" s="1">
         <v>3</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F143" s="1">
         <f>VLOOKUP(D143, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G143</f>
@@ -16550,24 +16550,24 @@
         <v>0.15</v>
       </c>
       <c r="AK143" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL143" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D144" s="1">
         <v>4</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F144" s="1">
         <f>VLOOKUP(D144, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G144</f>
@@ -16650,24 +16650,24 @@
         <v>0.1</v>
       </c>
       <c r="AK144" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL144" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="AL144" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="145" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D145" s="1">
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F145" s="1">
         <f>VLOOKUP(D145, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G145</f>
@@ -16750,36 +16750,36 @@
         <v>0.1</v>
       </c>
       <c r="AK145" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL145" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AL145" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="AM145" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN145" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AN145" s="1" t="s">
+      <c r="AO145" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AO145" s="1" t="s">
+      <c r="AP145" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="AP145" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="146" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D146" s="1">
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F146" s="1">
         <f>VLOOKUP(D146, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G146</f>
@@ -16862,36 +16862,36 @@
         <v>0.3</v>
       </c>
       <c r="AK146" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM146" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN146" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO146" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AN146" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AO146" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="AP146" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D147" s="1">
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F147" s="1">
         <f>VLOOKUP(D147, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G147</f>
@@ -16977,45 +16977,45 @@
         <v>0.3</v>
       </c>
       <c r="AK147" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL147" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM147" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AM147" s="1" t="s">
+      <c r="AN147" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AN147" s="1" t="s">
+      <c r="AO147" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AO147" s="1" t="s">
+      <c r="AP147" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AP147" s="1" t="s">
+      <c r="AQ147" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AQ147" s="1" t="s">
+      <c r="AR147" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AR147" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="AS147" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D148" s="1">
         <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F148" s="1">
         <f>VLOOKUP(D148, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G148</f>
@@ -17101,33 +17101,33 @@
         <v>0.3</v>
       </c>
       <c r="AK148" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL148" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM148" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AM148" s="1" t="s">
+      <c r="AN148" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AN148" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="AO148" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D149" s="1">
         <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F149" s="1">
         <f>VLOOKUP(D149, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G149</f>
@@ -17210,22 +17210,22 @@
         <v>0.35</v>
       </c>
       <c r="AK149" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL149" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM149" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AL149" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM149" s="1" t="s">
+      <c r="AN149" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AN149" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="AO149" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AP149" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -17236,7 +17236,7 @@
     <mergeCell ref="AK1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A5:H34 Y5:XFD34 I5:X149 H6:H149 F35:H149 A5:A149 B6:B149">
+  <conditionalFormatting sqref="A5:H34 Y5:XFD34 A5:A149 I5:X149 B6:B149 H6:H149 F35:H149">
     <cfRule type="expression" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>

--- a/design/MiniTemplate/Excels/#role.xlsx
+++ b/design/MiniTemplate/Excels/#role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3563CC-47BC-41A4-8F74-89DFC0480BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5868524A-AC03-45C7-816D-577D1A7E1A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1461,23 +1461,24 @@
     <t>h140</t>
   </si>
   <si>
-    <t>h141</t>
-  </si>
-  <si>
-    <t>h142</t>
-  </si>
-  <si>
-    <t>h143</t>
-  </si>
-  <si>
-    <t>h144</t>
-  </si>
-  <si>
-    <t>h145</t>
-  </si>
-  <si>
     <t>relations</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
   </si>
 </sst>
 </file>
@@ -2370,9 +2371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2458,7 +2459,7 @@
         <v>186</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
@@ -16658,7 +16659,7 @@
     </row>
     <row r="145" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>181</v>
@@ -16770,7 +16771,7 @@
     </row>
     <row r="146" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>182</v>
@@ -16882,7 +16883,7 @@
     </row>
     <row r="147" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>183</v>
@@ -17006,7 +17007,7 @@
     </row>
     <row r="148" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>184</v>
@@ -17118,7 +17119,7 @@
     </row>
     <row r="149" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>185</v>
@@ -17236,7 +17237,7 @@
     <mergeCell ref="AK1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A5:H34 Y5:XFD34 A5:A149 I5:X149 B6:B149 H6:H149 F35:H149">
+  <conditionalFormatting sqref="A5:H34 Y5:XFD34 A5:A149 I5:X149 H6:H149 F35:H149 B6:B149">
     <cfRule type="expression" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>

--- a/design/MiniTemplate/Excels/#role.xlsx
+++ b/design/MiniTemplate/Excels/#role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5868524A-AC03-45C7-816D-577D1A7E1A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A3858-6093-48D4-BD53-E984CC80953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5832" yWindow="2760" windowWidth="21912" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="477">
   <si>
     <t>##var</t>
   </si>
@@ -592,10 +592,6 @@
     <t>孙悟空</t>
   </si>
   <si>
-    <t>#修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>种族</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1479,6 +1475,38 @@
   </si>
   <si>
     <t>b5</t>
+  </si>
+  <si>
+    <t>quality_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>race_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defence_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_add_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defence_add_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_add_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2373,7 +2401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
+      <selection pane="bottomLeft" activeCell="P131" sqref="P131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2405,61 +2433,61 @@
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>186</v>
+        <v>474</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>186</v>
+        <v>475</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>186</v>
+        <v>476</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
@@ -2488,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -2497,43 +2525,67 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="H2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>209</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
@@ -2642,58 +2694,58 @@
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>10</v>
@@ -2731,7 +2783,7 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2740,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(D5, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G5</f>
@@ -2811,12 +2863,12 @@
         <v>1</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -2825,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(D6, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G6</f>
@@ -2902,12 +2954,12 @@
         <v>0.5</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
@@ -2916,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(D7, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G7</f>
@@ -2993,12 +3045,12 @@
         <v>0.5</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>44</v>
@@ -3007,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(D8, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G8</f>
@@ -3084,12 +3136,12 @@
         <v>0.6</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>45</v>
@@ -3098,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(D9, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G9</f>
@@ -3178,12 +3230,12 @@
         <v>0.1</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -3192,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(D10, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G10</f>
@@ -3275,15 +3327,15 @@
         <v>0.1</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
@@ -3292,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(D11, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G11</f>
@@ -3375,15 +3427,15 @@
         <v>0.1</v>
       </c>
       <c r="AK11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL11" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>48</v>
@@ -3392,7 +3444,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(D12, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G12</f>
@@ -3478,15 +3530,15 @@
         <v>0.1</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>49</v>
@@ -3495,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(D13, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G13</f>
@@ -3584,15 +3636,15 @@
         <v>0.1</v>
       </c>
       <c r="AK13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -3601,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(D14, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G14</f>
@@ -3687,15 +3739,15 @@
         <v>0.1</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>51</v>
@@ -3704,7 +3756,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F15" s="1">
         <f>VLOOKUP(D15, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G15</f>
@@ -3790,15 +3842,15 @@
         <v>0.2</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>52</v>
@@ -3807,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F16" s="1">
         <f>VLOOKUP(D16, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G16</f>
@@ -3893,15 +3945,15 @@
         <v>0.1</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -3910,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F17" s="1">
         <f>VLOOKUP(D17, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G17</f>
@@ -3990,12 +4042,12 @@
         <v>0.1</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>54</v>
@@ -4004,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F18" s="1">
         <f>VLOOKUP(D18, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G18</f>
@@ -4084,12 +4136,12 @@
         <v>0.1</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>55</v>
@@ -4098,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP(D19, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G19</f>
@@ -4178,12 +4230,12 @@
         <v>0.1</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>56</v>
@@ -4192,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F20" s="1">
         <f>VLOOKUP(D20, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G20</f>
@@ -4275,15 +4327,15 @@
         <v>0.1</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>57</v>
@@ -4292,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F21" s="1">
         <f>VLOOKUP(D21, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G21</f>
@@ -4375,15 +4427,15 @@
         <v>0.1</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>58</v>
@@ -4392,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F22" s="1">
         <f>VLOOKUP(D22, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G22</f>
@@ -4472,15 +4524,15 @@
         <v>0.1</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -4489,7 +4541,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F23" s="1">
         <f>VLOOKUP(D23, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G23</f>
@@ -4569,15 +4621,15 @@
         <v>0.1</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
@@ -4586,7 +4638,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F24" s="1">
         <f>VLOOKUP(D24, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G24</f>
@@ -4666,12 +4718,12 @@
         <v>0.1</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>61</v>
@@ -4680,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F25" s="1">
         <f>VLOOKUP(D25, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G25</f>
@@ -4760,15 +4812,15 @@
         <v>0.1</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>62</v>
@@ -4777,7 +4829,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F26" s="1">
         <f>VLOOKUP(D26, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G26</f>
@@ -4857,12 +4909,12 @@
         <v>0.1</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>63</v>
@@ -4871,7 +4923,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP(D27, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G27</f>
@@ -4951,15 +5003,15 @@
         <v>0.1</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>64</v>
@@ -4968,7 +5020,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F28" s="1">
         <f>VLOOKUP(D28, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G28</f>
@@ -5051,15 +5103,15 @@
         <v>0.1</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>65</v>
@@ -5068,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F29" s="1">
         <f>VLOOKUP(D29, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G29</f>
@@ -5151,15 +5203,15 @@
         <v>0.1</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -5168,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F30" s="1">
         <f>VLOOKUP(D30, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G30</f>
@@ -5251,15 +5303,15 @@
         <v>0.1</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>67</v>
@@ -5268,7 +5320,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F31" s="1">
         <f>VLOOKUP(D31, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G31</f>
@@ -5351,15 +5403,15 @@
         <v>0.2</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>68</v>
@@ -5368,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F32" s="1">
         <f>VLOOKUP(D32, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G32</f>
@@ -5448,12 +5500,12 @@
         <v>0.15</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>69</v>
@@ -5462,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F33" s="1">
         <f>VLOOKUP(D33, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G33</f>
@@ -5542,15 +5594,15 @@
         <v>0.15</v>
       </c>
       <c r="AK33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL33" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>70</v>
@@ -5559,7 +5611,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F34" s="1">
         <f>VLOOKUP(D34, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G34</f>
@@ -5639,15 +5691,15 @@
         <v>0.2</v>
       </c>
       <c r="AK34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL34" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>71</v>
@@ -5656,7 +5708,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F35" s="1">
         <f>VLOOKUP(D35, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G35</f>
@@ -5736,15 +5788,15 @@
         <v>0.2</v>
       </c>
       <c r="AK35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL35" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>72</v>
@@ -5753,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F36" s="1">
         <f>VLOOKUP(D36, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G36</f>
@@ -5836,15 +5888,15 @@
         <v>0.15</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>73</v>
@@ -5853,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F37" s="1">
         <f>VLOOKUP(D37, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G37</f>
@@ -5936,15 +5988,15 @@
         <v>0.2</v>
       </c>
       <c r="AK37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL37" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>74</v>
@@ -5953,7 +6005,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F38" s="1">
         <f>VLOOKUP(D38, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G38</f>
@@ -6039,15 +6091,15 @@
         <v>0.1</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>75</v>
@@ -6056,7 +6108,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F39" s="1">
         <f>VLOOKUP(D39, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G39</f>
@@ -6139,15 +6191,15 @@
         <v>0.2</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>76</v>
@@ -6156,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F40" s="1">
         <f>VLOOKUP(D40, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G40</f>
@@ -6239,12 +6291,12 @@
         <v>0.1</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>77</v>
@@ -6253,7 +6305,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F41" s="1">
         <f>VLOOKUP(D41, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G41</f>
@@ -6336,12 +6388,12 @@
         <v>0.1</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>78</v>
@@ -6350,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F42" s="1">
         <f>VLOOKUP(D42, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G42</f>
@@ -6433,12 +6485,12 @@
         <v>0.1</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>79</v>
@@ -6447,7 +6499,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP(D43, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G43</f>
@@ -6533,15 +6585,15 @@
         <v>0.05</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>80</v>
@@ -6550,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F44" s="1">
         <f>VLOOKUP(D44, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G44</f>
@@ -6636,15 +6688,15 @@
         <v>0.1</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>81</v>
@@ -6653,7 +6705,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F45" s="1">
         <f>VLOOKUP(D45, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G45</f>
@@ -6742,15 +6794,15 @@
         <v>0.1</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>82</v>
@@ -6759,7 +6811,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F46" s="1">
         <f>VLOOKUP(D46, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G46</f>
@@ -6848,15 +6900,15 @@
         <v>0.1</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>83</v>
@@ -6865,7 +6917,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F47" s="1">
         <f>VLOOKUP(D47, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G47</f>
@@ -6951,15 +7003,15 @@
         <v>0.1</v>
       </c>
       <c r="AK47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL47" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="AL47" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>84</v>
@@ -6968,7 +7020,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F48" s="1">
         <f>VLOOKUP(D48, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G48</f>
@@ -7057,15 +7109,15 @@
         <v>0.1</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>85</v>
@@ -7074,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F49" s="1">
         <f>VLOOKUP(D49, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G49</f>
@@ -7157,12 +7209,12 @@
         <v>0.1</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>86</v>
@@ -7171,7 +7223,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP(D50, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G50</f>
@@ -7254,15 +7306,15 @@
         <v>0.2</v>
       </c>
       <c r="AK50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL50" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="AL50" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>87</v>
@@ -7271,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F51" s="1">
         <f>VLOOKUP(D51, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G51</f>
@@ -7354,15 +7406,15 @@
         <v>0.2</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>88</v>
@@ -7371,7 +7423,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F52" s="1">
         <f>VLOOKUP(D52, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G52</f>
@@ -7457,15 +7509,15 @@
         <v>0.2</v>
       </c>
       <c r="AK52" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>89</v>
@@ -7474,7 +7526,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F53" s="1">
         <f>VLOOKUP(D53, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G53</f>
@@ -7560,12 +7612,12 @@
         <v>0.1</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>90</v>
@@ -7574,7 +7626,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F54" s="1">
         <f>VLOOKUP(D54, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G54</f>
@@ -7660,15 +7712,15 @@
         <v>0.2</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL54" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>91</v>
@@ -7677,7 +7729,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F55" s="1">
         <f>VLOOKUP(D55, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G55</f>
@@ -7763,15 +7815,15 @@
         <v>0.2</v>
       </c>
       <c r="AK55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL55" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="AL55" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>92</v>
@@ -7780,7 +7832,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F56" s="1">
         <f>VLOOKUP(D56, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G56</f>
@@ -7866,15 +7918,15 @@
         <v>0.2</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL56" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>93</v>
@@ -7883,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP(D57, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G57</f>
@@ -7963,15 +8015,15 @@
         <v>0.1</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>94</v>
@@ -7980,7 +8032,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP(D58, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G58</f>
@@ -8063,15 +8115,15 @@
         <v>0.1</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>95</v>
@@ -8080,7 +8132,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP(D59, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G59</f>
@@ -8163,12 +8215,12 @@
         <v>0.1</v>
       </c>
       <c r="AK59" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>96</v>
@@ -8177,7 +8229,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP(D60, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G60</f>
@@ -8260,15 +8312,15 @@
         <v>0.1</v>
       </c>
       <c r="AK60" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>97</v>
@@ -8277,7 +8329,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP(D61, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G61</f>
@@ -8360,15 +8412,15 @@
         <v>0.1</v>
       </c>
       <c r="AK61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>98</v>
@@ -8377,7 +8429,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP(D62, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G62</f>
@@ -8463,15 +8515,15 @@
         <v>0.1</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>99</v>
@@ -8480,7 +8532,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP(D63, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G63</f>
@@ -8569,15 +8621,15 @@
         <v>0.1</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>100</v>
@@ -8586,7 +8638,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP(D64, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G64</f>
@@ -8672,15 +8724,15 @@
         <v>0.1</v>
       </c>
       <c r="AK64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>101</v>
@@ -8689,7 +8741,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP(D65, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G65</f>
@@ -8772,15 +8824,15 @@
         <v>0.2</v>
       </c>
       <c r="AK65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL65" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="AL65" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>102</v>
@@ -8789,7 +8841,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F66" s="1">
         <f>VLOOKUP(D66, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G66</f>
@@ -8875,12 +8927,12 @@
         <v>0.1</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>103</v>
@@ -8889,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F67" s="1">
         <f>VLOOKUP(D67, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G67</f>
@@ -8972,15 +9024,15 @@
         <v>0.1</v>
       </c>
       <c r="AK67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL67" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="AL67" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>104</v>
@@ -8989,7 +9041,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F68" s="1">
         <f>VLOOKUP(D68, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G68</f>
@@ -9078,15 +9130,15 @@
         <v>0.15</v>
       </c>
       <c r="AK68" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL68" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>105</v>
@@ -9095,7 +9147,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F69" s="1">
         <f>VLOOKUP(D69, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G69</f>
@@ -9184,15 +9236,15 @@
         <v>0.15</v>
       </c>
       <c r="AK69" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>106</v>
@@ -9201,7 +9253,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F70" s="1">
         <f>VLOOKUP(D70, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G70</f>
@@ -9287,15 +9339,15 @@
         <v>0.1</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL70" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>107</v>
@@ -9304,7 +9356,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP(D71, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G71</f>
@@ -9393,15 +9445,15 @@
         <v>0.15</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>108</v>
@@ -9410,7 +9462,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F72" s="1">
         <f>VLOOKUP(D72, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G72</f>
@@ -9499,15 +9551,15 @@
         <v>0.1</v>
       </c>
       <c r="AK72" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>109</v>
@@ -9516,7 +9568,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP(D73, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G73</f>
@@ -9599,15 +9651,15 @@
         <v>0.1</v>
       </c>
       <c r="AK73" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL73" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>110</v>
@@ -9616,7 +9668,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP(D74, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G74</f>
@@ -9699,15 +9751,15 @@
         <v>0.1</v>
       </c>
       <c r="AK74" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL74" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>111</v>
@@ -9716,7 +9768,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP(D75, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G75</f>
@@ -9802,15 +9854,15 @@
         <v>0.1</v>
       </c>
       <c r="AK75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL75" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="AL75" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>112</v>
@@ -9819,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F76" s="1">
         <f>VLOOKUP(D76, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G76</f>
@@ -9902,15 +9954,15 @@
         <v>0.1</v>
       </c>
       <c r="AK76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL76" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="AL76" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>113</v>
@@ -9919,7 +9971,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F77" s="1">
         <f>VLOOKUP(D77, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G77</f>
@@ -10002,12 +10054,12 @@
         <v>0.1</v>
       </c>
       <c r="AK77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>114</v>
@@ -10016,7 +10068,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F78" s="1">
         <f>VLOOKUP(D78, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G78</f>
@@ -10099,15 +10151,15 @@
         <v>0.1</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>115</v>
@@ -10116,7 +10168,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F79" s="1">
         <f>VLOOKUP(D79, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G79</f>
@@ -10199,15 +10251,15 @@
         <v>0.1</v>
       </c>
       <c r="AK79" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>116</v>
@@ -10216,7 +10268,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F80" s="1">
         <f>VLOOKUP(D80, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G80</f>
@@ -10299,15 +10351,15 @@
         <v>0.1</v>
       </c>
       <c r="AK80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>117</v>
@@ -10316,7 +10368,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F81" s="1">
         <f>VLOOKUP(D81, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G81</f>
@@ -10399,15 +10451,15 @@
         <v>0.1</v>
       </c>
       <c r="AK81" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL81" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>118</v>
@@ -10416,7 +10468,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F82" s="1">
         <f>VLOOKUP(D82, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G82</f>
@@ -10499,15 +10551,15 @@
         <v>0.2</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>119</v>
@@ -10516,7 +10568,7 @@
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F83" s="1">
         <f>VLOOKUP(D83, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G83</f>
@@ -10599,15 +10651,15 @@
         <v>0.2</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>120</v>
@@ -10616,7 +10668,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F84" s="1">
         <f>VLOOKUP(D84, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G84</f>
@@ -10699,15 +10751,15 @@
         <v>0.2</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>121</v>
@@ -10716,7 +10768,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F85" s="1">
         <f>VLOOKUP(D85, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G85</f>
@@ -10799,15 +10851,15 @@
         <v>0.2</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>122</v>
@@ -10816,7 +10868,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F86" s="1">
         <f>VLOOKUP(D86, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G86</f>
@@ -10899,15 +10951,15 @@
         <v>0.1</v>
       </c>
       <c r="AK86" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>123</v>
@@ -10916,7 +10968,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F87" s="1">
         <f>VLOOKUP(D87, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G87</f>
@@ -10999,15 +11051,15 @@
         <v>0.15</v>
       </c>
       <c r="AK87" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>124</v>
@@ -11016,7 +11068,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F88" s="1">
         <f>VLOOKUP(D88, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G88</f>
@@ -11099,15 +11151,15 @@
         <v>0.15</v>
       </c>
       <c r="AK88" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL88" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="AL88" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>125</v>
@@ -11116,7 +11168,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F89" s="1">
         <f>VLOOKUP(D89, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G89</f>
@@ -11199,15 +11251,15 @@
         <v>0.2</v>
       </c>
       <c r="AK89" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>126</v>
@@ -11216,7 +11268,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F90" s="1">
         <f>VLOOKUP(D90, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G90</f>
@@ -11299,15 +11351,15 @@
         <v>0.2</v>
       </c>
       <c r="AK90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL90" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AL90" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>127</v>
@@ -11316,7 +11368,7 @@
         <v>7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F91" s="1">
         <f>VLOOKUP(D91, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G91</f>
@@ -11399,15 +11451,15 @@
         <v>0.25</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>128</v>
@@ -11416,7 +11468,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F92" s="1">
         <f>VLOOKUP(D92, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G92</f>
@@ -11499,12 +11551,12 @@
         <v>0.05</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>129</v>
@@ -11513,7 +11565,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP(D93, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G93</f>
@@ -11596,15 +11648,15 @@
         <v>0.05</v>
       </c>
       <c r="AK93" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL93" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="AL93" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>130</v>
@@ -11613,7 +11665,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F94" s="1">
         <f>VLOOKUP(D94, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G94</f>
@@ -11693,15 +11745,15 @@
         <v>0.1</v>
       </c>
       <c r="AK94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL94" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="AL94" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>131</v>
@@ -11710,7 +11762,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F95" s="1">
         <f>VLOOKUP(D95, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G95</f>
@@ -11793,15 +11845,15 @@
         <v>0.15</v>
       </c>
       <c r="AK95" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>132</v>
@@ -11810,7 +11862,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F96" s="1">
         <f>VLOOKUP(D96, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G96</f>
@@ -11890,15 +11942,15 @@
         <v>0.1</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>133</v>
@@ -11907,7 +11959,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F97" s="1">
         <f>VLOOKUP(D97, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G97</f>
@@ -11990,12 +12042,12 @@
         <v>0.1</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>134</v>
@@ -12004,7 +12056,7 @@
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F98" s="1">
         <f>VLOOKUP(D98, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G98</f>
@@ -12087,15 +12139,15 @@
         <v>0.1</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL98" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>135</v>
@@ -12104,7 +12156,7 @@
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F99" s="1">
         <f>VLOOKUP(D99, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G99</f>
@@ -12187,15 +12239,15 @@
         <v>0.15</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>136</v>
@@ -12204,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F100" s="1">
         <f>VLOOKUP(D100, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G100</f>
@@ -12287,12 +12339,12 @@
         <v>0.05</v>
       </c>
       <c r="AK100" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>137</v>
@@ -12301,7 +12353,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F101" s="1">
         <f>VLOOKUP(D101, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G101</f>
@@ -12384,15 +12436,15 @@
         <v>0.05</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>138</v>
@@ -12401,7 +12453,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F102" s="1">
         <f>VLOOKUP(D102, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G102</f>
@@ -12484,15 +12536,15 @@
         <v>0.05</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>139</v>
@@ -12501,7 +12553,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F103" s="1">
         <f>VLOOKUP(D103, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G103</f>
@@ -12584,15 +12636,15 @@
         <v>0.05</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>140</v>
@@ -12601,7 +12653,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F104" s="1">
         <f>VLOOKUP(D104, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G104</f>
@@ -12684,15 +12736,15 @@
         <v>0.05</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>141</v>
@@ -12701,7 +12753,7 @@
         <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F105" s="1">
         <f>VLOOKUP(D105, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G105</f>
@@ -12784,15 +12836,15 @@
         <v>0.1</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL105" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>142</v>
@@ -12801,7 +12853,7 @@
         <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F106" s="1">
         <f>VLOOKUP(D106, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G106</f>
@@ -12890,15 +12942,15 @@
         <v>0.2</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>143</v>
@@ -12907,7 +12959,7 @@
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F107" s="1">
         <f>VLOOKUP(D107, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G107</f>
@@ -12990,15 +13042,15 @@
         <v>0.1</v>
       </c>
       <c r="AK107" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL107" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="AL107" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="108" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>144</v>
@@ -13007,7 +13059,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F108" s="1">
         <f>VLOOKUP(D108, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G108</f>
@@ -13093,12 +13145,12 @@
         <v>0.05</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>145</v>
@@ -13107,7 +13159,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F109" s="1">
         <f>VLOOKUP(D109, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G109</f>
@@ -13193,15 +13245,15 @@
         <v>0.05</v>
       </c>
       <c r="AK109" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL109" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="AL109" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="110" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>146</v>
@@ -13210,7 +13262,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F110" s="1">
         <f>VLOOKUP(D110, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G110</f>
@@ -13296,15 +13348,15 @@
         <v>0.05</v>
       </c>
       <c r="AK110" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL110" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="AL110" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="111" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>147</v>
@@ -13313,7 +13365,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F111" s="1">
         <f>VLOOKUP(D111, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G111</f>
@@ -13399,15 +13451,15 @@
         <v>0.05</v>
       </c>
       <c r="AK111" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>148</v>
@@ -13416,7 +13468,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F112" s="1">
         <f>VLOOKUP(D112, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G112</f>
@@ -13502,12 +13554,12 @@
         <v>0.15</v>
       </c>
       <c r="AK112" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>149</v>
@@ -13516,7 +13568,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F113" s="1">
         <f>VLOOKUP(D113, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G113</f>
@@ -13602,12 +13654,12 @@
         <v>0.15</v>
       </c>
       <c r="AK113" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>150</v>
@@ -13616,7 +13668,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F114" s="1">
         <f>VLOOKUP(D114, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G114</f>
@@ -13702,12 +13754,12 @@
         <v>0.2</v>
       </c>
       <c r="AK114" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>151</v>
@@ -13716,7 +13768,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F115" s="1">
         <f>VLOOKUP(D115, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G115</f>
@@ -13802,12 +13854,12 @@
         <v>0.2</v>
       </c>
       <c r="AK115" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>152</v>
@@ -13816,7 +13868,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F116" s="1">
         <f>VLOOKUP(D116, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G116</f>
@@ -13902,12 +13954,12 @@
         <v>0.25</v>
       </c>
       <c r="AK116" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>153</v>
@@ -13916,7 +13968,7 @@
         <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F117" s="1">
         <f>VLOOKUP(D117, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G117</f>
@@ -14002,12 +14054,12 @@
         <v>0.25</v>
       </c>
       <c r="AK117" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>154</v>
@@ -14016,7 +14068,7 @@
         <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F118" s="1">
         <f>VLOOKUP(D118, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G118</f>
@@ -14102,12 +14154,12 @@
         <v>0.25</v>
       </c>
       <c r="AK118" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>155</v>
@@ -14116,7 +14168,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F119" s="1">
         <f>VLOOKUP(D119, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G119</f>
@@ -14202,12 +14254,12 @@
         <v>0.3</v>
       </c>
       <c r="AK119" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>156</v>
@@ -14216,7 +14268,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F120" s="1">
         <f>VLOOKUP(D120, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G120</f>
@@ -14296,15 +14348,15 @@
         <v>0.15</v>
       </c>
       <c r="AK120" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>157</v>
@@ -14313,7 +14365,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F121" s="1">
         <f>VLOOKUP(D121, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G121</f>
@@ -14402,15 +14454,15 @@
         <v>0.05</v>
       </c>
       <c r="AK121" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL121" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>158</v>
@@ -14419,7 +14471,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F122" s="1">
         <f>VLOOKUP(D122, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G122</f>
@@ -14502,15 +14554,15 @@
         <v>0.05</v>
       </c>
       <c r="AK122" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>159</v>
@@ -14519,7 +14571,7 @@
         <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F123" s="1">
         <f>VLOOKUP(D123, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G123</f>
@@ -14602,15 +14654,15 @@
         <v>0.1</v>
       </c>
       <c r="AK123" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>160</v>
@@ -14619,7 +14671,7 @@
         <v>7</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F124" s="1">
         <f>VLOOKUP(D124, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G124</f>
@@ -14702,15 +14754,15 @@
         <v>0.15</v>
       </c>
       <c r="AK124" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>161</v>
@@ -14719,7 +14771,7 @@
         <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F125" s="1">
         <f>VLOOKUP(D125, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G125</f>
@@ -14802,15 +14854,15 @@
         <v>0.05</v>
       </c>
       <c r="AK125" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>162</v>
@@ -14819,7 +14871,7 @@
         <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F126" s="1">
         <f>VLOOKUP(D126, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G126</f>
@@ -14902,15 +14954,15 @@
         <v>0.15</v>
       </c>
       <c r="AK126" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>163</v>
@@ -14919,7 +14971,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F127" s="1">
         <f>VLOOKUP(D127, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G127</f>
@@ -15002,12 +15054,12 @@
         <v>0.2</v>
       </c>
       <c r="AK127" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>164</v>
@@ -15016,7 +15068,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F128" s="1">
         <f>VLOOKUP(D128, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G128</f>
@@ -15099,15 +15151,15 @@
         <v>0.2</v>
       </c>
       <c r="AK128" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL128" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="AL128" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="129" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>165</v>
@@ -15116,7 +15168,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F129" s="1">
         <f>VLOOKUP(D129, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G129</f>
@@ -15190,15 +15242,15 @@
         <v>0.9</v>
       </c>
       <c r="AK129" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL129" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="AL129" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="130" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>166</v>
@@ -15207,7 +15259,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F130" s="1">
         <f>VLOOKUP(D130, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G130</f>
@@ -15290,15 +15342,15 @@
         <v>0.05</v>
       </c>
       <c r="AK130" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL130" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="AL130" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="131" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>167</v>
@@ -15307,7 +15359,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F131" s="1">
         <f>VLOOKUP(D131, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G131</f>
@@ -15390,15 +15442,15 @@
         <v>0.05</v>
       </c>
       <c r="AK131" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL131" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="AL131" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="132" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>168</v>
@@ -15407,7 +15459,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F132" s="1">
         <f>VLOOKUP(D132, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G132</f>
@@ -15490,15 +15542,15 @@
         <v>0.2</v>
       </c>
       <c r="AK132" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>169</v>
@@ -15507,7 +15559,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F133" s="1">
         <f>VLOOKUP(D133, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G133</f>
@@ -15581,12 +15633,12 @@
         <v>0.5</v>
       </c>
       <c r="AK133" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>170</v>
@@ -15595,7 +15647,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F134" s="1">
         <f>VLOOKUP(D134, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G134</f>
@@ -15672,12 +15724,12 @@
         <v>0.05</v>
       </c>
       <c r="AK134" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>171</v>
@@ -15686,7 +15738,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F135" s="1">
         <f>VLOOKUP(D135, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G135</f>
@@ -15763,15 +15815,15 @@
         <v>0.05</v>
       </c>
       <c r="AK135" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL135" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>172</v>
@@ -15780,7 +15832,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F136" s="1">
         <f>VLOOKUP(D136, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G136</f>
@@ -15857,15 +15909,15 @@
         <v>0.05</v>
       </c>
       <c r="AK136" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>173</v>
@@ -15874,7 +15926,7 @@
         <v>6</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F137" s="1">
         <f>VLOOKUP(D137, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G137</f>
@@ -15951,12 +16003,12 @@
         <v>0.05</v>
       </c>
       <c r="AK137" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>174</v>
@@ -15965,7 +16017,7 @@
         <v>7</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F138" s="1">
         <f>VLOOKUP(D138, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G138</f>
@@ -16051,15 +16103,15 @@
         <v>0.05</v>
       </c>
       <c r="AK138" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL138" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>175</v>
@@ -16068,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F139" s="1">
         <f>VLOOKUP(D139, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G139</f>
@@ -16151,15 +16203,15 @@
         <v>0.1</v>
       </c>
       <c r="AK139" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>176</v>
@@ -16168,7 +16220,7 @@
         <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F140" s="1">
         <f>VLOOKUP(D140, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G140</f>
@@ -16254,15 +16306,15 @@
         <v>0.1</v>
       </c>
       <c r="AK140" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>177</v>
@@ -16271,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F141" s="1">
         <f>VLOOKUP(D141, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G141</f>
@@ -16354,12 +16406,12 @@
         <v>0.05</v>
       </c>
       <c r="AK141" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>178</v>
@@ -16368,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F142" s="1">
         <f>VLOOKUP(D142, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G142</f>
@@ -16451,15 +16503,15 @@
         <v>0.1</v>
       </c>
       <c r="AK142" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>179</v>
@@ -16468,7 +16520,7 @@
         <v>3</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F143" s="1">
         <f>VLOOKUP(D143, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G143</f>
@@ -16551,15 +16603,15 @@
         <v>0.15</v>
       </c>
       <c r="AK143" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL143" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>180</v>
@@ -16568,7 +16620,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F144" s="1">
         <f>VLOOKUP(D144, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G144</f>
@@ -16651,15 +16703,15 @@
         <v>0.1</v>
       </c>
       <c r="AK144" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL144" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AL144" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="145" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>181</v>
@@ -16668,7 +16720,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F145" s="1">
         <f>VLOOKUP(D145, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G145</f>
@@ -16751,27 +16803,27 @@
         <v>0.1</v>
       </c>
       <c r="AK145" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL145" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AL145" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="AM145" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN145" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AN145" s="1" t="s">
+      <c r="AO145" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AO145" s="1" t="s">
+      <c r="AP145" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="AP145" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="146" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>182</v>
@@ -16780,7 +16832,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F146" s="1">
         <f>VLOOKUP(D146, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G146</f>
@@ -16863,27 +16915,27 @@
         <v>0.3</v>
       </c>
       <c r="AK146" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM146" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN146" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO146" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AN146" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO146" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="AP146" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>183</v>
@@ -16892,7 +16944,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F147" s="1">
         <f>VLOOKUP(D147, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G147</f>
@@ -16978,36 +17030,36 @@
         <v>0.3</v>
       </c>
       <c r="AK147" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL147" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM147" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AM147" s="1" t="s">
+      <c r="AN147" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AN147" s="1" t="s">
+      <c r="AO147" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AO147" s="1" t="s">
+      <c r="AP147" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AP147" s="1" t="s">
+      <c r="AQ147" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AQ147" s="1" t="s">
+      <c r="AR147" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AR147" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="AS147" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>184</v>
@@ -17016,7 +17068,7 @@
         <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F148" s="1">
         <f>VLOOKUP(D148, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G148</f>
@@ -17102,24 +17154,24 @@
         <v>0.3</v>
       </c>
       <c r="AK148" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL148" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM148" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AM148" s="1" t="s">
+      <c r="AN148" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AN148" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="AO148" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>185</v>
@@ -17128,7 +17180,7 @@
         <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F149" s="1">
         <f>VLOOKUP(D149, [1]Sheet1!$A$5:$L$14, 2, FALSE)*G149</f>
@@ -17211,22 +17263,22 @@
         <v>0.35</v>
       </c>
       <c r="AK149" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL149" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM149" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AL149" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM149" s="1" t="s">
+      <c r="AN149" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AN149" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="AO149" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AP149" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -17237,7 +17289,7 @@
     <mergeCell ref="AK1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A5:H34 Y5:XFD34 A5:A149 I5:X149 H6:H149 F35:H149 B6:B149">
+  <conditionalFormatting sqref="A5:H34 Y5:XFD34 A5:A149 I5:X149 B6:B149 H6:H149 F35:H149">
     <cfRule type="expression" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
